--- a/pract1/scraped/ANSA.xlsx
+++ b/pract1/scraped/ANSA.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B228"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,1824 +412,2089 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>La musica italiana festeggia i 90 anni di Ornella Vanoni</v>
+        <v>Arriva l'ultima Superluna dell'anno DIRETTA ALLE 19:30</v>
       </c>
       <c r="B2" t="str">
-        <v>https://www.ansa.it/sito/videogallery/spettacolo/2024/09/22/la-musica-italiana-festeggia-i-90-anni-di-ornella-vanoni_43e04a90-d47b-43d3-8108-f0542683822d.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/spazio_astronomia/2024/11/15/arriva-lultima-superluna-dellanno-diretta-alle-1930_5237d363-59f0-4e52-b020-afe52f118e5b.html</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>I 30 anni di Friends, un anniversario listato a lutto</v>
+        <v>Gambero Rosso, 33 pasticcerie dettano tendenze del dolce italiano</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/tv/2024/09/21/i-30-anni-di-friends-un-anniversario-listato-a-lutto_b81d306f-7b36-4459-be7a-0e05082c014f.html</v>
+        <v>https://www.ansa.it/canale_terraegusto/notizie/in_breve/2024/11/14/gambero-rosso33-pasticcerie-dettano-tendenze-del-dolce-italiano_f592e50c-b04d-4212-a935-c359bb196341.html</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Federica Manzon con 'Alma' vince il Premio Campiello</v>
+        <v>'Siamo serie': Qui non è Hollywood, Them, Night Tide</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/libri/2024/09/21/federica-manzon-con-alma-vince-il-premio-campiello-con-101-voti_525c4716-081a-43b9-ace9-30d5012fcb00.html</v>
+        <v>https://www.ansa.it/sito/videogallery/spettacolo/2024/11/14/siamo-serie-qui-non-e-hollywood-them-night-tide_0b26de8b-c042-4279-ab37-b4c277ecd734.html</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Frankenstein Junior torna al cinema, dopo 50 anni si ride in 4K</v>
+        <v>Venduto dopo anni Ca' Dario, il palazzo maledetto a Venezia</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/2024/09/21/frankenstein-junior-dopo-50-anni-si-ride-in-4k_3d9dcf4c-c64b-440e-89ac-f2689c84bf63.html</v>
+        <v>https://www.ansa.it/veneto/notizie/2024/11/14/venduto-dopo-anni-ca-dario-il-palazzo-maledetto-a-venezia_dc4e30dd-cead-4f09-b02f-90f64eb2b5c0.html</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Viaggi autunnali verso Alba e Assisi con i treni turistici</v>
+        <v>Legal tech e privacy engineer, ecco i nuovi lavori che nascono dall'IA</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/fs_treni_turistici/2024/09/19/viaggi-autunnali-verso-alba-e-assisi-con-i-treni-turistici_3d9706b9-e227-47b6-a803-608c6b09fe2b.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/ricerca_istituzioni/2024/11/14/bernini-linnovazione-e-motore-di-sviluppo-per-il-paese_f542db3b-6094-4d9d-9c36-267cbb656466.html</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Crolla una palazzina a Saviano, morti due bambini. Estratti vivi padre e figlio, si scava ancora</v>
+        <v>'Trump ha approvato la proposta di cessate il fuoco in Libano'.  Crolla un edificio a Beirut</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.ansa.it/campania/notizie/2024/09/22/crolla-palazzina-nel-napoletano-persone-le-sotto-macerie_2d160151-3baf-41a4-88bf-4197c655a1e5.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/mediooriente/2024/11/15/trump-ha-approvato-la-proposta-di-cessate-il-fuoco-in-libano_bfc13bd8-d85a-4540-b35a-ccdeeface7b6.html</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Le immagini dei soccorsi a Saviano</v>
+        <v>Comitato Onu, 'i metodi di Israele a Gaza da genocidio'</v>
       </c>
       <c r="B8" t="str">
-        <v>https://www.ansa.it/campania/photogallery/2024/09/22/crolla-palazzina-nel-napoletano-le-immagini-dei-soccorsi_b6a5be3d-9536-4f61-a244-ada4b7b19a15.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/2024/11/14/comitato-onu-i-metodi-di-israele-a-gaza-da-genocidio_f393d3a2-340c-4e3e-91f1-050b6a5950a5.html</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Pioggia di missili su Israele: Al Jazeera chiusa per 45 giorni</v>
+        <v>L'inflazione ad ottobre sale a +0,9%, il carrello della spesa aumenta del 2%</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/09/22/pioggia-di-missili-su-israele-al-jazeera-chiusa-per-45-giorni_4cef1ae3-97f1-43e5-b6a6-5833beafef20.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/pmi/2024/11/15/listat-conferma-linflazione-ad-ottobre-sale-a-09_9014a0e9-537b-4647-9240-149426162efc.html</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>L'Iran svela missile e drone durante la parata delle forze armate</v>
+        <v>Incendio in una residenza per anziani in Spagna, 10 morti</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/09/21/iran-svela-missile-e-drone-durante-parata-forze-armate_c65e7a28-d36e-48da-b66b-397225ebc5e4.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/2024/11/15/incendio-in-una-residenza-per-anziani-in-spagna-10-morti_89ad4b14-342c-4d47-ac2f-9c530338cc03.html</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Libano, attacco israeliano nella periferia sud di Beirut: danni e macerie</v>
+        <v>'Illegittime alcune disposizioni' della legge sull'Autonomia</v>
       </c>
       <c r="B11" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/21/libano-attacco-israeliano-nella-periferia-sud-di-beirut-danni-e-macerie_cf1f1eb9-564b-4297-9391-c9869e183aa2.html</v>
+        <v>https://www.ansa.it/sito/notizie/politica/2024/11/14/consulta-illegittime-alcune-disposizioni-sullautonomia-differenziata_55c9c3bf-f2ba-478f-9b46-1ad384f387e5.html</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Maria Rosaria Boccia indagata, perquisita la casa e sequestrato il cellulare</v>
+        <v>Cassese, Comitato Lep avanti fino al 31 dicembre</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.ansa.it/sito/notizie/cronaca/2024/09/21/boccia-indagata-perquisita-la-casa-e-sequestrato-il-cellulare_9eed3a71-7981-4a2b-902a-329afec0cc7f.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/cassese-comitato-lep-avanti-fino-al-31-dicembre_f81012aa-62e2-4574-a4c9-b7902dfc4b4f.html</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Le chat di Sangiuliano e Boccia, 'liti e finte gravidanze'</v>
+        <v>Arrivato a Beirut Larijani, consigliere di Khamenei</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.ansa.it/sito/notizie/cronaca/2024/09/20/le-chat-di-sangiuliano-e-boccia-liti-e-finte-gravidanze_ba8991c1-b44d-4c00-9a13-6c49967bf8aa.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/arrivato-a-beirut-larijani-consigliere-di-khamenei_9dc3de37-3841-4f89-83c7-9822873bbbb5.html</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Onu in Libano, 'Medio Oriente sull'orlo della catastrofe'</v>
+        <v>Libano, almeno 9 gli attacchi aerei su Beirut oggi</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/onu-in-libano-medio-oriente-sullorlo-della-catastrofe_c63e9898-71ba-49a0-8aab-aedcec870e12.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/libano-almeno-9-gli-attacchi-aerei-su-beirut-oggi_4ec08fe0-0f89-4882-9110-a39b1ab17a07.html</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Gruppi filo-Iran iracheni, 'lanciati droni su Israele'</v>
+        <v>Trump, 'Russia e Ucraina la devono smettere, lavorerò duramente'</v>
       </c>
       <c r="B15" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/gruppi-filo-iran-iracheni-lanciati-droni-su-israele_f68c16fe-a69b-46f7-ae1f-4d46e2d0233f.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/trump-russia-e-ucraina-la-devono-smettere-lavorero-duramente_56f65b6f-e15e-4cb7-9614-9768e496b95f.html</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mosca, abbattuti 15 droni ucraini in cinque regioni russe</v>
+        <v>Crolla edificio a Beirut dopo attacco nella periferia sud</v>
       </c>
       <c r="B16" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/mosca-abbattuti-15-droni-ucraini-in-cinque-regioni-russe_169cf069-5f93-44dd-86e0-6d679e28c36d.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/crolla-edificio-a-beirut-dopo-attacco-nella-periferia-sud_004716eb-602e-4216-acc7-13c71035d531.html</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Israele chiude le scuole nelle zone di confine con Libano</v>
+        <v>Libano,8 membri della Protezione civili uccisi in raid Israele</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/israele-chiude-le-scuole-nelle-zone-di-confine-con-libano_c08774df-8eb1-4367-bd1a-6cc7fe8d0818.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/libano8-membri-della-protezione-civili-uccisi-in-raid-israele_b065051b-24e1-45dd-a83d-14db0e9717f1.html</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Hezbollah, 'colpiti siti industriali militari in Israele'</v>
+        <v>L'Istat conferma, l'inflazione ad ottobre sale a +0,9%</v>
       </c>
       <c r="B18" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/hezbollah-colpiti-siti-industriali-militari-in-israele_88152d39-f9f6-4fc6-8b0e-1f0c2b581395.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/listat-conferma-linflazione-ad-ottobre-sale-a-09_da3d4879-075e-418d-bf81-916e27f36bf9.html</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Idf, oltre 100 razzi lanciati dal Libano questa mattina</v>
+        <v>'Trump ha approvato proposta cessate il fuoco in Libano'</v>
       </c>
       <c r="B19" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/idf-oltre-100-razzi-lanciati-dal-libano-questa-mattina_ea35e65b-255b-4dcc-a894-5397442e5ab3.html</v>
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/trump-ha-approvato-proposta-cessate-il-fuoco-in-libano_63a6514f-f216-413e-a454-35aa8c56afd3.html</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Iran, esplosione in una miniera di carbone, 30 morti</v>
+        <v>Prova di forza di Trump, un no-vax alla Salute e i suoi avvocati ai vertici della Giustizia</v>
       </c>
       <c r="B20" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/iran-esplosione-in-una-miniera-di-carbone-30-morti_abac790e-3e9c-4ed8-bc67-34f02c4834cd.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/nordamerica/2024/11/15/trump-nomina-due-suoi-avvocati-ai-vertici-del-ministero-della-giustizia_54a6abaf-1b3f-425c-9a5e-7d4e29dd86af.html</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Crollo palazzina: padre e figlio estratti vivi, morta bimba</v>
+        <v>Donna trovata morta nel Tarantino, ha ferite da taglio sul corpo</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/crollo-palazzina-padre-e-figlio-estratti-vivi-morta-bimba_7d60b0d2-f757-4c0f-841c-859c5d575413.html</v>
+        <v>https://www.ansa.it/puglia/notizie/2024/11/15/donna-trovata-morta-nel-tarantino-ha-ferite-da-taglio-sul-corpo_cb79a635-cd26-4889-9cae-fdd290b29a29.html</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Difese super e poche occasioni, Juventus-Napoli finisce 0-0</v>
+        <v>Meloni: 'Rispetto i ruoli ma sull'immigrazione andrò avanti'</v>
       </c>
       <c r="B22" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/21/difese-super-e-poche-occasioni-juve-napoli-finisce-0-0_30361a46-7a72-47ed-9577-18d5919d98f4.html</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>Dalla Chiesa: 'Mio padre ucciso per fare un favore a un politico'</v>
+        <v>https://www.ansa.it/sito/notizie/politica/2024/11/14/meloni-rispetto-i-ruoli-ma-sullimmigrazione-andro-avanti-_7304c60a-bf9c-42f7-bab0-173239158126.html</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str" xml:space="preserve">
+        <v xml:space="preserve">'Bonus di 1500 euro per le scuole paritarie'. Apertura di Valditara.
+Lega, più fondi al Ponte</v>
       </c>
       <c r="B23" t="str">
-        <v>https://www.ansa.it/sito/notizie/politica/2024/09/21/rita-dalla-chiesa-mio-padre-ucciso-per-fare-un-favore-un-politico_0ab5202d-6255-418c-ac92-40093fd4583f.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/2024/11/14/manovra-bonus-fino-a-1500-euro-per-le-scuole-paritarie.-valditara-e-giusto_a388cc71-6ce1-4ffa-9d64-3d3e33388932.html</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Il dramma di Verona: la madre ha sparato al figlio, poi si è suicidata. Il ragazzo è gravissimo</v>
+        <v>Italian inflation rose to 0.9% in October says Istat</v>
       </c>
       <c r="B24" t="str">
-        <v>https://www.ansa.it/veneto/notizie/2024/09/21/il-dramma-di-verona-ha-sparato-al-figlio-e-si-e-suicidata_5ae69ad1-ebdc-4605-883c-f30002086e95.html</v>
+        <v>https://www.ansa.it/english/news/business/2024/11/15/italian-inflation-rose-to-0.9-in-october-says-istat_7c7aa3a7-cdb3-40c9-a39e-1b7fa639429b.html</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Il ministero: nessun rinvio della polizza per le imprese. Salvini: 'No a quella obbligatoria sulla casa'</v>
+        <v>Progetto CAPCOM - Sondaggio sulla Politica Agricola Comune</v>
       </c>
       <c r="B25" t="str">
-        <v>https://www.ansa.it/sito/notizie/politica/2024/09/21/il-ministero-nessun-rinvio-della-polizza-per-le-imprese.-salvini-no-a-quella-obbligatoria_fa3fa0bd-5557-46b3-bf6b-12d463e9fd18.html</v>
+        <v>https://docs.google.com/forms/d/e/1FAIpQLSe0PkydPAcPRxIyUngiYGxMMa1b_w_kr2TDYbPvS5pNZhsNvQ/viewform?usp=sf_link</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Salvini says no to compulsory-home-insurance idea</v>
+        <v>Nuova Zelanda, deputati maori protestano in aula con l'haka</v>
       </c>
       <c r="B26" t="str">
-        <v>https://www.ansa.it/english/news/politics/2024/09/21/salvini-says-no-to-compulsory-home-insurance-idea_3ec094c9-d279-4216-98d7-77f53b6528db.html</v>
+        <v>https://www.ansa.it/sito/videogallery/mondo/2024/11/14/nuova-zelanda-deputati-maori-protestano-in-aula-col-haka_73a9033c-c917-4f37-8c9e-6103dba7538a.html</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Primi candidati per il premio Sacharov 2024. Proposta comune da popolari ed conservatori</v>
+        <v>PRIME PAGINE | Lep e tributi, illegittime alcune disposizioni sull’Autonomia</v>
       </c>
       <c r="B27" t="str">
-        <v>https://www.ansa.it/europa/notizie/rubriche/altrenews/2024/09/18/primi-candidati-per-il-premio-sacharov-2024.-proposta-comune-da-popolari-ed-conservatori_3c95bc98-632f-4c98-b794-1371ae615148.html</v>
+        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/11/15/prime-pagine-fitto-da-mattarella-il-suo-incarico-importante-per-litalia_85c17bee-7c18-4e4c-91da-4afe32764f54.html</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>L'esercito di Israele nella sede di Al Jazeera a Ramallah, stop per 45 giorni</v>
+        <v>'Giovani, sfide e lavoro', la Cna si confronta sul futuro</v>
       </c>
       <c r="B28" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/22/esercito-israele-in-sede-al-jazeera-ramallah-stop-45-giorni_0b7e8fd7-1db4-4c30-b706-99b2b7dc73af.html</v>
+        <v>https://www.ansa.it/sito/notizie/eventi/2024/11/14/giovani-sfide-e-lavoro-la-cna-si-confronta-sul-futuro_d3adac1e-979f-4d5e-b495-6114194d9808.html</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>L'Italia, l'Europa e Kiev</v>
+        <v>Ecco le nuove prestazioni a carico del servizio sanitario</v>
       </c>
       <c r="B29" t="str">
-        <v>https://www.ansa.it/sito/podcast/la_scelta_del_direttore/2024/09/20/litalia-leuropa-e-kiev_2bfb5eba-52c7-4eb3-b7a7-a2df094e5e5d.html</v>
+        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/11/15/dalla-procreazione-assistita-alla-consulenza-genetica-le-nuove-prestazioni-del-ssn_1f4bf055-fa15-4993-b7c6-1b4b0df0f6b8.html</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Addio a Paola Marella, architetta e volto noto della tv</v>
+        <v>L'Ue lima le stime di crescita per l'Italia, +0,7% nel 2024, +1% nel 2025. Germania in recessione</v>
       </c>
       <c r="B30" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/tv/2024/09/21/e-morta-la-conduttrice-tv-paola-marella_fbc9c7e0-4d23-4f82-a7d7-f934897091ad.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/aziende/2024/11/15/lue-lima-le-stime-di-crescita-per-litalia-07-nel-2024-1-nel-2025_8dfc21f3-b6f6-4e51-8f65-8284f2b73425.html</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Ornella Vanoni, i 90 anni irresistibili</v>
+        <v>La ragazza morta per l'intervento al naso, gli indagati rischiano nuove accuse</v>
       </c>
       <c r="B31" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/musica/2024/09/20/ornella-vanoni-90-anni-irresistibili_993b2294-80f1-4cc5-938a-7587f927e314.html</v>
+        <v>https://www.ansa.it/sito/notizie/cronaca/2024/11/14/la-ragazza-morta-per-lintervento-al-naso-gli-indagati-rischiano-nuove-accuse_abbaf39d-6d04-47df-8cb4-5d48438eb85b.html</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Esplosione in una miniera di carbone in Iran, 51 morti e 22 lavoratori intrappolati</v>
+        <v>'Responsabili di genocidio', un hotel rifiuta clienti di Israele</v>
       </c>
       <c r="B32" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/09/22/iran-esplosione-in-una-miniera-di-carbone-51-morti-e-22-lavoratori-intrappolati_97e8c97d-4ed3-477b-ab96-6d27788d9dfa.html</v>
+        <v>https://www.ansa.it/veneto/notizie/2024/11/14/responsabili-di-genocidio-hotel-rifiuta-clienti-israele_44959885-0a5f-40dc-a030-d08809acca0d.html</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Il bonus di Natale: 100 euro in tredicesima, su richiesta e per redditi non oltre 28mila euro</v>
+        <v>Multa Ue da 798 milioni per il Marketplace, Meta farà ricorso</v>
       </c>
       <c r="B33" t="str">
-        <v>https://www.ansa.it/sito/notizie/economia/2024/09/21/bonus-natale-100-euro-in-tredicesima-su-richiesta_36f145ce-0a07-4ef9-b385-e371a9800560.html</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Arrivederci estate, è l’equinozio d’autunno</v>
+        <v>https://www.ansa.it/canale_tecnologia/notizie/web_social/2024/11/14/multa-ue-da-798-milioni-per-il-marketplace-di-facebook_1ebe793d-5ebb-474d-97ca-452fb07781d4.html</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str" xml:space="preserve">
+        <v xml:space="preserve">SPECIALE BLACK FRIDAY
+Non perderti i codici sconto esclusivi</v>
       </c>
       <c r="B34" t="str">
-        <v>https://www.ansa.it/canale_scienza/notizie/spazio_astronomia/2024/09/22/arrivederci-estate-e-lequinozio-dautunno_96bf21f4-a6af-44ff-9d59-0f6688c412e9.html</v>
+        <v>https://www.ansa.it/speciale_black_friday/news/index.shtml?home</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Trent'anni senza Nicholas, bimbo simbolo del dono degli organi</v>
+        <v>SCOPRI DI PIÙ</v>
       </c>
       <c r="B35" t="str">
-        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/09/21/trentanni-senza-nicholas-bimbo-simbolo-del-dono-degli-organi_4fb23636-6b0e-470e-b174-0a0badb0211f.html</v>
+        <v>https://www.ansa.it/speciale_black_friday/news/index.shtml?home</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Routine</v>
+        <v>Quei bambini italiani 'nati fuori dal matrimonio' e mandati negli Usa, una lettera al Papa</v>
       </c>
       <c r="B36" t="str">
-        <v>https://www.ansa.it/sito/podcast/la_parola_della_settimana/2024/09/21/routine_a08acc76-fb2a-4c19-af64-a79b6f910b87.html</v>
+        <v>https://www.ansa.it/vaticano/notizie/cristiani_mondo/2024/11/14/quei-bambini-italiani-mandati-negli-usa-consegnata-una-lettera-al-papa_77e8cded-18d1-4e1c-b587-f8ab54a6e155.html</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Tutte le bugie di Chiara, 'Temevo i giudizi degli altri'</v>
+        <v>Riconosciuti ad una donna i requisiti per il suicidio assistito</v>
       </c>
       <c r="B37" t="str">
-        <v>https://www.ansa.it/emiliaromagna/notizie/2024/09/21/tutte-le-bugie-di-chiara-temevo-i-giudizi-degli-altri_6da78449-5164-42c2-8b6a-afc4ed4e6891.html</v>
+        <v>https://www.ansa.it/umbria/notizie/2024/11/14/riconosciuti-a-malata-perugia-requisiti-suicidio-assistito_6d0f4d44-089b-47c9-93a6-10153f7848ec.html</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Imane Khelif a Milano alla settimana della moda</v>
+        <v>Non consegna 150 pacchi in 6 ore, licenziato un corriere Amazon</v>
       </c>
       <c r="B38" t="str">
-        <v>https://www.ansa.it/lombardia/notizie/2024/09/21/imane-khelif-a-milano-durante-la-fashion-week_a5730707-b98e-43bb-ae57-69e1738141fc.html</v>
+        <v>https://www.ansa.it/toscana/notizie/2024/11/14/non-consegna-150-pacchi-in-6-ore-licenziato-un-corriere-amazon_615d1c2d-b54e-47c8-84ab-d2e6417b7e6b.html</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>FOCUS | Gino Paoli: 'Mai avrei immaginato di arrivare a 90 anni'</v>
+        <v>Resti di uri in Mesopotamia, i più antichi antenati del bue</v>
       </c>
       <c r="B39" t="str">
-        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/09/21/focus-gino-paoli-mai-avrei-immaginato-di-arrivare-a-90-anni_8565be2b-5d64-4532-912a-137e5ab1825b.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/ragazzi/news/2024/11/14/resti-di-uri-in-mesopotamia-i-piu-antichi-antenati-del-bue_d1e65b39-c135-41cc-b9bc-6460c3096e3d.html</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Il 'dissing' tra Fedez e Tony Effe finisce con la canzone per Chiara Ferragni</v>
+        <v>Antitrust, Ryanair rimborserà i costi extra del check in</v>
       </c>
       <c r="B40" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/musica/2024/09/21/dissing-fedez-e-tony-effe-finisce-con-la-canzone-per-chiara_fb0e5ca8-158d-467b-b0d0-94f24ed1ed18.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/2024/11/14/antitrust-ryanair-rimborsera-i-costi-extra-del-check-in-_38bbf10d-f0b3-49eb-9cad-e5127f3a0e6c.html</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Dal duro all'astro nascente, i 39 ministri di Barnier</v>
+        <v>Nelle librerie fino al 17 novembre la nona edizione di #ioleggoperché</v>
       </c>
       <c r="B41" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/09/21/dal-duro-allastro-nascente-i-39-ministri-di-barnier_cbd158aa-73b8-4d88-a924-23d84e769019.html</v>
+        <v>https://www.ansa.it/canale_legalita_scuola/notizie/2024/11/07/ioleggoperche-al-via-il-9-novembre-la-nona-edizione_8f6e108b-e9ae-45a5-9789-3035aec7421f.html</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>L'IA italiana si incontra a Napoli per Fair</v>
+        <v>Intesa Sanpaolo, Up2Stars in due anni selezionate 80 startup</v>
       </c>
       <c r="B42" t="str">
-        <v>https://www.ansa.it/sito/notizie/eventi/2024/09/21/lia-italiana-si-incontra-a-napoli-per-fair_2785c75f-b402-4fac-8b08-3eea60a6ff67.html</v>
+        <v>https://www.ansa.it/sito/notizie/eventi/2024/11/13/intesa-sanpaolo-up2stars-in-due-anni-selezionate-80-startup-_beb7c98c-c20e-49de-bbfc-03ad74da30a4.html</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>L'esercito di Israele nella sede di Al Jazeera a Ramallah, stop per 45 giorni</v>
+        <v>Nuova Zelanda, deputati maori protestano in aula col 'haka'</v>
       </c>
       <c r="B43" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/22/esercito-israele-in-sede-al-jazeera-ramallah-stop-45-giorni_0b7e8fd7-1db4-4c30-b706-99b2b7dc73af.html</v>
+        <v>https://www.ansa.it/sito/videogallery/mondo/2024/11/14/nuova-zelanda-deputati-maori-protestano-in-aula-col-haka_73a9033c-c917-4f37-8c9e-6103dba7538a.html</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>La musica italiana festeggia i 90 anni di Ornella Vanoni</v>
+        <v>"Siamo serie": Qui non e' Hollywood, Them, Night Tide</v>
       </c>
       <c r="B44" t="str">
-        <v>https://www.ansa.it/sito/videogallery/spettacolo/2024/09/22/la-musica-italiana-festeggia-i-90-anni-di-ornella-vanoni_43e04a90-d47b-43d3-8108-f0542683822d.html</v>
+        <v>https://www.ansa.it/sito/videogallery/spettacolo/2024/11/14/siamo-serie-qui-non-e-hollywood-them-night-tide_0b26de8b-c042-4279-ab37-b4c277ecd734.html</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Assisi, in 3mila alla Marcia della Pace</v>
+        <v>A Startan i pesciolini robot per la salvaguardia dei mari</v>
       </c>
       <c r="B45" t="str">
-        <v>https://www.ansa.it/sito/videogallery/italia/2024/09/21/assisi-in-3mila-alla-marcia-della-pace_657cbcfa-5fde-4c6c-8523-58b7d8884ed2.html</v>
+        <v>https://www.ansa.it/sito/videogallery/italia/2024/11/14/a-startan-i-pesciolini-robot-per-la-salvaguardia-dei-mari_4b61d03c-baf0-4733-96ec-4d1c8ee8ccb4.html</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Oktoberfest, centinaia di persone corrono per accaparrarsi i posti migliori</v>
+        <v>Micro aggressioni verbali, il 62% le ha subite al lavoro</v>
       </c>
       <c r="B46" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/21/oktoberfest-centinaia-di-persone-corrono-per-accaparrarsi-i-posti-migliori_252285d2-71f7-4bde-b306-22efab1b7df6.html</v>
+        <v>https://www.ansa.it/sito/videogallery/economia/2024/11/14/micro-aggressioni-verbali-il-62-le-ha-subite-al-lavoro_733ba231-d26d-431c-b332-51dcff7fc5ef.html</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Libano, attacco israeliano nella periferia sud di Beirut: danni e macerie</v>
+        <v>Rapinarono Neres di un orologio da 100mila euro, 3 arresti a Napoli</v>
       </c>
       <c r="B47" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/21/libano-attacco-israeliano-nella-periferia-sud-di-beirut-danni-e-macerie_cf1f1eb9-564b-4297-9391-c9869e183aa2.html</v>
+        <v>https://www.ansa.it/sito/videogallery/italia/2024/11/14/rapinarono-neres-di-un-orologio-da-100mila-euro-3-arresti-a-napoli_7b9293d0-727e-4f5b-85b5-ce8e8b6fb14c.html</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Raoul Bova: "Dopo la morte dei miei genitori ho fatto pensieri davvero brutti…"</v>
+        <v>Tyson vs Paul, il faccia a faccia a poche ore dall'incontro</v>
       </c>
       <c r="B48" t="str">
-        <v>https://www.ansa.it/sito/videogallery/spettacolo/2024/09/21/raoul-bova-dopo-la-morte-dei-miei-genitori-ho-fatto-pensieri-davvero_0a283424-77c1-48bc-a3fe-2cfca9833dbf.html</v>
+        <v>https://www.ansa.it/sito/videogallery/sport/2024/11/14/tyson-vs-paul-il-faccia-a-faccia-a-poche-ore-dallincontro_ae4afcec-412e-4485-b7d5-6365a7b07b8a.html</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Giappone, 60 mila evacuati e un disperso per le forti piogge</v>
+        <v>Maxi evasione dell'Iva per "lavare" i soldi delle mafie, oltre 200 indagati</v>
       </c>
       <c r="B49" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/21/giappone-60-mila-evacuati-e-un-disperso-per-le-forti-piogge_5d891162-caf7-4d34-bbec-2a71deb3c789.html</v>
+        <v>https://www.ansa.it/sito/videogallery/italia/2024/11/14/maxi-evasione-delliva-per-lavare-i-soldi-delle-mafie-oltre-200_f835e112-236a-43f0-90da-35d867677174.html</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Kamala Harris da Oprah Winfrey: "Se qualcuno entra in casa mia gli sparo"</v>
+        <v>Musk è il doge, che cosa vuol dire</v>
       </c>
       <c r="B50" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/20/kamala-harris-da-oprah-winfrey-se-qualcuno-entra-in-casa-mia-gli-sparo_6925174e-481b-4782-93bb-71b79d93dcaf.html</v>
+        <v>https://www.ansa.it/sito/videogallery/mondo/2024/11/14/musk-e-il-doge-che-cosa-vuol-dire_f78248fc-6e74-42f0-bb48-72713d176c91.html</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Trento, manifestazione in difesa degli orsi</v>
+        <v>Atp Finals: Sinner non fa sconti, travolto anche Medvedev</v>
       </c>
       <c r="B51" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/21/trento-manifestazione-in-difesa-degli-orsi_1dfd1833-57b1-48ac-85da-dcccc1e60d73.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/15/atp-finals-sinner-non-fa-sconti-travolto-anche-medvedev_2990f659-cd4d-4516-b7e1-e38a2dd13f1e.html</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Madonna alla sfilata di Dolce e Gabbana</v>
+        <v>Nuova Zelanda, deputati maori protestano in aula con l'Haka</v>
       </c>
       <c r="B52" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/21/madonna-alla-sfilata-di-dolce-e-gabbana_4d7fd204-a484-414d-b444-6c6b2a5320ab.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/14/nuova-zelanda-deputati-maori-protestano-in-aula-con-lhaka_1124ce37-b66c-4d52-b03e-eba62d248619.html</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Monaco, al via l'Oktoberfest</v>
+        <v>Distruggono le loro auto travestiti da orsi: 4 arresti</v>
       </c>
       <c r="B53" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/21/monaco-al-via-loktoberfest_c7b371a6-9b1f-45e7-86b4-f1a717e2d0ea.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/14/distruggono-le-loro-auto-travestiti-da-orsi-4-arresti_64cb344a-1415-4b43-bf04-a8dd26ff1f41.html</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Nuova ondata di raid israeliani in Libano</v>
+        <v>Mike Tyson-Jake Paul, il faccia a faccia prima della sfida</v>
       </c>
       <c r="B54" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/21/nuova-ondata-di-raid-israeliani-in-libano_2312ec9a-e794-4431-98ab-7d38877b5b2e.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/14/mike-tyson-jake-paul-il-faccia-a-faccia-prima-della-sfida_f5776770-7ef1-4f81-abec-9c628cda733f.html</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>I 90 anni irresistibili di Ornella Vanoni</v>
+        <v>"God bless America", Trump e Musk cantano con il tenore Macchio</v>
       </c>
       <c r="B55" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/21/i-90-anni-irresistibili-di-ornella-vanoni_5139b4c0-8284-45d3-9c54-961f6be323d8.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/14/god-bless-america-trump-e-musk-cantano-con-il-tenore-macchio_736daac9-631f-4b38-a44b-2cbff75e8974.html</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Kamala Harris a Oprah: "Se qualcuno entra a casa mia gli sparo"</v>
+        <v>Torna la neve sulle Dolomiti bellunesi</v>
       </c>
       <c r="B56" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/20/kamala-harris-a-oprah-se-qualcuno-entra-a-casa-mia-gli-sparo_00253a2b-abfd-42c6-9d95-04a3937f8566.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/14/torna-la-neve-sulle-dolomiti-bellunesi_bb9576f5-8ba7-454d-a9f0-918270e7be86.html</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Raid israeliano a Beirut, morti e decine di feriti</v>
+        <v>Roma, Venditti premiato dalla citta': "Ora torni grande"</v>
       </c>
       <c r="B57" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/20/raid-israeliano-a-beirut-morti-e-decine-di-feriti_32d8600c-a913-49bd-b52c-9cd0f00db3cd.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/13/roma-venditti-premiato-dalla-citta-ora-torni-grande_25c1c920-5bc9-4e4a-80e1-a020d3465f73.html</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Bolzano, al Rainerum intelligenza artificiale emotiva per il futuro</v>
+        <v>In Valtellina una "foto" che viene dalla preistoria</v>
       </c>
       <c r="B58" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/20/bolzano-al-rainerum-intelligenza-artificiale-emotiva-per-il-futuro_3d419187-830a-4f53-8294-7ce0c5614270.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/13/in-valtellina-una-foto-che-viene-dalla-preistoria_fd56ae48-9372-41d3-8f00-1836aa9ad5e2.html</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Vigili del Fuoco salvano un cane scivolato nel pozzo</v>
+        <v>Birmania, luci e magia al festival delle mongolfiere</v>
       </c>
       <c r="B59" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/20/vigili-del-fuoco-salvano-un-cane-scivolato-nel-pozzo_3cef31a7-4a2d-447d-a99b-b4570bb7a71a.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/13/birmania-luci-e-magia-al-festival-delle-mongolfiere_8691b286-5832-4555-b507-d378233c70af.html</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Von der Leyen incontra Zelensky, l'Europa in aiuto dell'Ucraina</v>
+        <v>Nubifragio nel catanese: strade come fiumi, auto trascinate in mare</v>
       </c>
       <c r="B60" t="str">
-        <v>https://www.ansa.it/sito/videogallery/short_video/2024/09/20/von-der-leyen-incontra-zelensky-leuropa-in-aiuto-dellucraina_8d5601f1-256b-4c11-a405-5efa89740056.html</v>
+        <v>https://www.ansa.it/sito/videogallery/short_video/2024/11/13/nubifragio-nel-catanese-strade-come-fiumi-auto-trascinate-in-mare_8602e2bf-9f85-4fa9-80cc-22d22e5544c2.html</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Harris accetta l'invito della Cnn per il duello tv, ma Trump dice no</v>
+        <v>Nations League, Italia ai quarti, Belgio battuto 1-0. Decide Tonali</v>
       </c>
       <c r="B61" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/09/21/harris-accetta-linvito-cnn-per-il-duello-tv-ma-trump-dice-no_8ccc34b5-7577-418f-9133-f03b6c6b08ef.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/11/14/nations-league-italia-ai-quarti-belgio-battuto-1-0.-decide-tonali-foto_3b1719e9-d2ab-4abb-8c85-1153af05c363.html</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Musk fa una mega donazione a Trump, 289mila dollari</v>
+        <v>Nations League: Belgio-Italia 0-1</v>
       </c>
       <c r="B62" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/09/21/musk-fa-una-mega-donazione-a-trump-289mila-dollari_3e382267-7d31-4e2d-a955-9c70715dbfc3.html</v>
+        <v>https://www.ansa.it/sito/photostory/calcio/2024/11/14/nations-league-belgio-italia-0-1_23c05a15-fabf-4e8c-bbb4-67e24d8d8f3f.html</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Kamala Harris da Oprah Winfrey: 'Se qualcuno entra in casa mia gli sparo'</v>
+        <v>Sinner batte Medvedev, è primo nel girone</v>
       </c>
       <c r="B63" t="str">
-        <v>https://www.ansa.it/sito/videogallery/mondo/2024/09/20/kamala-harris-da-oprah-winfrey-se-qualcuno-entra-in-casa-mia-gli-sparo_6925174e-481b-4782-93bb-71b79d93dcaf.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/atp-finals/2024/11/14/atp-finals-sinner-batte-medvedev-e-primo-nel-girone_2c3c5ab5-dcb8-48dc-9b72-1bbe00c15487.html</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Trump: 'Se non vinco Israele sarà sradicato'</v>
+        <v>Argentina ko in Paraguay, il Venezuela ferma il Brasile</v>
       </c>
       <c r="B64" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/09/20/trump-se-non-vinco-israele-sara-sradicato_98b479ab-52c5-482d-add6-2ecfba62549f.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/2024/11/15/mondiali-2026-argentina-ko-in-paraguay-il-venezuela-ferma-il-brasile_62f395d8-0f4e-4934-b653-9bfff505a201.html</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Il Lecce spreca, il Parma agguanta il pari nel finale</v>
+        <v>Tecnico e dirigente, la rifondazione della Roma parte da Ranieri</v>
       </c>
       <c r="B65" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/21/serie-a-lecce-parma-2-2-cronaca-e-foto_03779517-d31e-4665-9e55-f3acc7935a0c.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/11/15/tecnico-e-dirigente-la-rifondazione-della-roma-parte-da-ranieri-_c3f1443d-294c-4d8b-a124-6f8464681d13.html</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Serie A: Lecce-Parma 2-2</v>
+        <v>Paul col diamante all'orecchio, 'così Tyson non mi morde'</v>
       </c>
       <c r="B66" t="str">
-        <v>https://www.ansa.it/sito/photostory/calcio/2024/09/21/serie-a-lecce-parma-2-2_77b57f16-c755-4c91-8108-eab1e7cf5714.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/altrisport/2024/11/14/paul-col-diamante-allorecchiocosi-tyson-non-mi-morde_47a3ca20-2a8e-4cd9-baa7-5508f391c5b8.html</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Real Madrid batte Espanyol 4-1, al Bernabeu omaggio a Totò Schillaci</v>
+        <v>Falcao diventa il miglior marcatore colombiano di sempre</v>
       </c>
       <c r="B67" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/21/calcioreal-madrid-espanyol-4-1-al-bernabeu-omaggio-a-schillaci_5f14a6e5-c917-40a8-82d5-7a56d6d3cf20.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/2024/11/15/falcao-diventa-il-miglior-marcatore-colombiano-di-sempre_11add206-cab0-4e7f-a55b-205af331bb5f.html</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Prima gioia in Serie A del Venezia, Genoa non pervenuto</v>
+        <v>Torna la regina dello sci, Vonn in pista a 40 anni</v>
       </c>
       <c r="B68" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/21/prima-gioia-in-serie-a-del-venezia-genoa-non-pervenuto_17805c0f-507e-4900-924e-32d73660274f.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/sci/2024/11/14/torna-la-regina-dello-sci-vonn-in-pista-a-40-anni_09843d62-0b74-4210-b38e-862c0a0b3de5.html</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Bagnaia pole e sprint a Misano, Martin più vicino</v>
+        <v>Bagnaia: 'La mia strategia a Barcellona? Vincere due gare'</v>
       </c>
       <c r="B69" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/moto/2024/09/21/motogp-bagnaia-pole-e-sprint-a-misano-martin-piu-vicino_2d298b70-0714-4ed0-b583-676f8a14a445.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/moto/2024/11/14/motogp-bagnaia-la-mia-strategia-a-barcellona-vincere-due-gare-_29904406-7ac9-4881-80fa-c499a591773c.html</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Norris in pole a Singapore, solo nono Leclerc</v>
+        <v>Lazio: stop per Dia, ha contratto la malaria</v>
       </c>
       <c r="B70" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/2024/09/21/f1-norris-in-pole-position-a-singapore-davanti-a-verstappen.-solo-nono-leclerc_94cf214b-f9cc-43a0-aacf-b18c37b4d38b.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/11/14/calcio-lazio-stop-per-dia-ha-contratto-la-malaria_08aeddb4-9f56-4eab-be17-1a9a2a9b600a.html</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Tre gol al Verona, il Torino vola in testa al campionato e sogna</v>
+        <v>Euro U.21: Italia con la testa alla Francia, Nunziata vuole continuità</v>
       </c>
       <c r="B71" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/21/tre-gol-al-verona-il-torino-vola-in-testa-e-sogna_7a0b1bd7-6192-45ce-b9f9-f8da9e985742.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/11/14/euro-u.21-italia-testa-alla-francia-nunziata-vuole-continuita_e207abcf-8189-43de-9ae9-75f31d8b5669.html</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Impresa dell'Empoli a Cagliari, i toscani volano</v>
+        <v>Juventus: lesione del crociato per Cabal, sarà operato</v>
       </c>
       <c r="B72" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/20/serie-a-impresa-dellempoli-a-cagliari-i-toscani-volano-al-secondo-posto_2c10f4c6-f64c-4a71-9023-f8443500fd79.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/11/14/calcio-juve-lesione-del-crociato-per-cabal-sara-operato_6d11b932-b3da-454b-9d2a-e0fe62295378.html</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Fonseca: 'Non penso al mio destino, c'è frustrazione'</v>
+        <v>Zverev: 'Lavoro per raggiungere Sinner e Alcaraz'</v>
       </c>
       <c r="B73" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/20/serie-a-in-campo-domenica-alle-20.45-inter-milan-live_5c823c14-44ae-4cd3-8b8b-8006303cce0e.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/atp-finals/2024/11/14/atp-finals-zverev-lavoro-per-raggiungere-sinner-e-alcaraz_c9f691ba-c342-4696-bbdb-8f470632c4ea.html</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Emozioni in Premier, ecco Manchester City-Arsenal</v>
+        <v>Atp Finals, Ruud: 'Girone aperto, posso ancora qualificarmi'</v>
       </c>
       <c r="B74" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/2024/09/20/emozioni-in-premier-ecco-manchester-city-arsenal_d8a01c4c-b62b-4827-8e06-1644df1390b4.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/atp-finals/2024/11/14/atp-finals-ruud-girone-aperto-posso-ancora-qualificarmi_5dda79d7-20de-41c6-9a46-596b1628ad9d.html</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Balotelli: 'Desidero tornare a giocare in serie A'</v>
+        <v>Atp Finals: Zverev lotta e vince, battuto Ruud</v>
       </c>
       <c r="B75" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/20/calcio-balotelli-desidero-tornare-a-giocare-in-serie-a_8b477bb9-b85c-4ed5-9db6-575b067dc076.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/atp-finals/2024/11/13/atp-finals-zverev-lotta-e-vince-battuto-ruud_6eedd9d7-c721-4b2f-bba2-2cee3f1477a9.html</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Baroni: 'Con la Fiorentina sarà dura, ma la Lazio sta bene'</v>
+        <v>Australiani Purcell/Thompson in semifinale</v>
       </c>
       <c r="B76" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/20/serie-a-in-campo-domenica-alle-12.30-fiorentina-lazio-live_f2c93fe6-7599-444c-8c57-d5f02903f485.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/atp-finals/2024/11/14/atp-finals-australiani-purcellthompson-in-semifinale_9f71fb3e-eaa6-4f5d-9605-32062f245335.html</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Anziana uccisa in casa, fermato il nipote: 'Abbiamo litigato, l'ho colpita con una forbice'</v>
+        <v>In doppio Heliovaara-Patten volano in semifinale</v>
       </c>
       <c r="B77" t="str">
-        <v>https://www.ansa.it/liguria/notizie/2024/09/21/anziana-uccisa-in-casa-dal-nipote-a-colpi-di-forbici_1328b0b0-be50-49bf-af3d-d54e349c94d6.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/atp-finals/2024/11/14/atp-finals-in-doppio-heliovaara-patten-volano-in-semifinale_c2a3367e-706e-4f07-b2bb-f8d0e1ddf542.html</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>In 3mila da Assisi in marcia per difendere la pace</v>
+        <v>Gaudenzi omaggia Torino: 'Le Finals un successo'</v>
       </c>
       <c r="B78" t="str">
-        <v>https://www.ansa.it/umbria/notizie/2024/09/21/in-3mila-alla-marcia-della-pace-di-assisi-_99aa0aea-c5bc-48cb-a6de-4a09dea3c720.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/atp-finals/2024/11/14/gaudenzi-omaggia-torino-le-finals-un-successo_71198546-b1ef-4eaa-8a0b-0f1f17d120ad.html</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Terremoto di magnitudo 4.1 in Sicilia, epicentro in mare</v>
+        <v>Stuprarono le due nipotine, condannati a 16 anni nonno e zio</v>
       </c>
       <c r="B79" t="str">
-        <v>https://www.ansa.it/sito/notizie/cronaca/2024/09/21/terremoto-di-magnitudo-4.1-in-sicilia-epicentro-in-mare_9973a010-7f16-49f5-b3bb-325c007b679e.html</v>
+        <v>https://www.ansa.it/sicilia/notizie/2024/11/14/stuprarono-le-due-nipotine-condannati-a-16-anni-nonno-e-zio_2b0ecef8-4f18-4015-a727-34ac82026878.html</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Un vandalo danneggia un'opera di Ai Weiwei a Bologna, verrà arrestato</v>
+        <v>Tre guide uccise da una valanga, indagato l'istruttore</v>
       </c>
       <c r="B80" t="str">
-        <v>https://www.ansa.it/emiliaromagna/notizie/2024/09/20/un-vandalo-danneggia-unopera-di-ai-weiwei-a-bologna-verra-arrestato_48da9b7e-42fb-4e16-abfe-d334c228a5a4.html</v>
+        <v>https://www.ansa.it/valledaosta/notizie/2024/11/14/tre-guide-uccise-da-una-valanga-indagato-listruttore-_1af27176-4056-4197-9cf9-d80b3e50ce42.html</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>A scuola di caffè, parte progetto nel carcere di Secondigliano</v>
+        <v>Maxievasione dell'Iva all'ombra di mafia e camorra, 47 arresti</v>
       </c>
       <c r="B81" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_terraegusto/kimbo/2024/09/16/rubino-kimbo-formeremo-detenuti-allarte-di-fare-il-caffe_70e8e7ff-c96e-4606-8c64-143a45bfb203.html</v>
+        <v>https://www.ansa.it/sicilia/notizie/2024/11/14/maxievasione-iva-allombra-delle-mafie-200-indagati_4f216e6e-ca05-4690-afa2-485d8746d21e.html</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Mariuccia, 98 anni, la più anziana windsurfista d'Italia</v>
+        <v>Quindicenne si impicca: aggredito il ragazzino 'conteso'</v>
       </c>
       <c r="B82" t="str">
-        <v>https://www.ansa.it/sardegna/notizie/2024/09/20/mariuccia-98-anni-la-piu-anziana-windsurfista-ditalia_bb0dfbb9-e5de-4082-9fe4-9058efadc25b.html</v>
+        <v>https://www.ansa.it/sicilia/notizie/2024/11/14/quindicenne-si-impicca-aggredito-ragazzino-conteso_140e4378-099a-4f7e-a9f6-95987f382fbc.html</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Un panificio a Bolzano introduce il sabato libero: 'Vogliamo dare l'esempio'</v>
+        <v>Donna trovata morta nel Tarantino, ha ferite da taglio sul corpo</v>
       </c>
       <c r="B83" t="str">
-        <v>https://www.ansa.it/trentino/notizie/2024/09/19/panificio-introduce-il-sabato-libero-vogliamo-dare-lesempio_13b0c206-071e-4b43-b3bb-44da19b637ec.html</v>
+        <v>https://www.ansa.it/puglia/notizie/2024/11/15/donna-trovata-morta-nel-tarantino-ha-ferite-da-taglio-sul-corpo_cb79a635-cd26-4889-9cae-fdd290b29a29.html</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Una ciclopedalata sulle strade di Gigi Riva</v>
+        <v>Autista di bus aggredito e picchiato da ragazzini</v>
       </c>
       <c r="B84" t="str">
-        <v>https://www.ansa.it/sardegna/notizie/2024/09/19/una-ciclopedalata-sulle-strade-di-gigi-riva_717ff933-ca95-46e6-9a7e-63f27e785777.html</v>
+        <v>https://www.ansa.it/emiliaromagna/notizie/2024/11/14/autista-di-bus-aggredito-e-picchiato-da-ragazzini_09a0f93d-22da-40f1-9a4e-d00895ac7261.html</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>L'invenzione degli studenti di Foligno, una cover carica cellulare a energia solare</v>
+        <v>Orologio da 100mila euro rapinato a Neres, 3 arresti a Napoli</v>
       </c>
       <c r="B85" t="str">
-        <v>https://www.ansa.it/umbria/notizie/2024/09/16/studenti-inventano-cover-carica-cellulare-a-energia-solare_c99f76d1-e6c5-486f-8afc-b10dc9c5f79d.html</v>
+        <v>https://www.ansa.it/campania/notizie/2024/11/14/orologio-da-100mila-euro-rapinato-a-neres-3-arresti-a-napoli_3ae263a3-ceb6-4d3e-997c-dc360105a824.html</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Mamma finisce all'ospedale, due poliziotti vegliano sulle figlie</v>
+        <v>Aggressione a tifoso disabile, Daspo 5 anni per due persone</v>
       </c>
       <c r="B86" t="str">
-        <v>https://www.ansa.it/veneto/notizie/2024/09/16/mamma-finisce-allospedale-due-poliziotti-vegliano-sulle-figlie_eb9a1c39-6e83-4dbc-ab61-4d4b07bee665.html</v>
+        <v>https://www.ansa.it/lombardia/notizie/2024/11/14/aggressione-a-tifoso-disabile-daspo-5-anni-per-due-persone_0e2aa0ef-ddea-4700-8b92-7a13fca8e0cf.html</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Bimbo morto nell'alluvione nelle Marche, vivrà in un fumetto</v>
+        <v>FOCUS | Lep e tributi, illegittime alcune disposizioni sull'autonomia.</v>
       </c>
       <c r="B87" t="str">
-        <v>https://www.ansa.it/marche/notizie/2024/09/14/bimbo-morto-nellalluvione-nelle-marche-vivra-in-un-fumetto_588c023a-e228-4a9a-bb35-16632a153812.html</v>
+        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/11/15/focus-lep-e-tributi-illegittime-alcune-disposizioni-sullautonomia._dd02088a-dd7b-4fcf-b4c0-bc313de316ed.html</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Prete e goleador, don Francesco gioca e segna in Promozione</v>
+        <v>PRIME PAGINE | Lep e tributi, illegittime alcune disposizioni sull’autonomia</v>
       </c>
       <c r="B88" t="str">
-        <v>https://www.ansa.it/emiliaromagna/notizie/2024/09/14/prete-e-goleador-don-francesco-gioca-e-segna-in-promozione_8cf732f4-16bd-445c-a2d5-68d588562f56.html</v>
+        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/11/15/prime-pagine-fitto-da-mattarella-il-suo-incarico-importante-per-litalia_85c17bee-7c18-4e4c-91da-4afe32764f54.html</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Franco Picciolini e il record delle 75 vendemmie</v>
+        <v>Alla scoperta di Qui non è Hollywood, Them e Night Tide</v>
       </c>
       <c r="B89" t="str">
-        <v>https://www.ansa.it/umbria/notizie/2024/09/13/viticoltore-di-orvieto-festeggia-i-75-anni-di-vendemmie_625ac2d1-f32e-4313-8b33-9a21818a2669.html</v>
+        <v>https://www.ansa.it/sito/podcast/siamo_serie/2024/11/14/alla-scoperta-di-qui-non-e-hollywood-them-e-night-tide_1b7cc2cb-875c-48f6-8427-8f8ffbe5ec93.html</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Emanuele, maestro del taglio e raccolta delle uve</v>
+        <v>Biden riceve Trump: 'non abbandonare l'Ucraina a Putin'</v>
       </c>
       <c r="B90" t="str">
-        <v>https://www.ansa.it/sardegna/notizie/2024/09/12/emanuele-maestro-del-taglio-e-raccolta-delle-uve_660b75d9-1106-440a-979d-e51ca154e7e9.html</v>
+        <v>https://www.ansa.it/sito/podcast/in_diretta_dal_mondo/2024/11/14/biden-riceve-trump-non-abbandonare-lucraina-a-putin_1e0f2d3f-b5b6-47c1-b77d-da0acf3c5ade.html</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>L'impresa solidale dell'ex sindaco, da Assisi a Roma a piedi per raccogliere fondi</v>
+        <v>FOCUS | Mattarella a Musk, 'l'Italia sa badare a se stessa'</v>
       </c>
       <c r="B91" t="str">
-        <v>https://www.ansa.it/veneto/notizie/2024/09/11/sei-giorni-cammino-per-ex-sindaco-sulle-tracce-di-san-francesco_0a18d249-41ff-44d3-8c54-4aa4839e6540.html</v>
+        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/11/14/focus-mattarella-a-musk-litalia-sa-badare-a-se-stessa_542499d0-7ec8-4891-9d3c-df199d0930ac.html</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>La via francigena in bici, 1.000 km per sfidare il Parkinson</v>
+        <v>PRIME PAGINE | Niente intesa sulla Commissione Ue, attacco dei socialisti al Ppe</v>
       </c>
       <c r="B92" t="str">
-        <v>https://www.ansa.it/lazio/notizie/2024/09/11/la-via-francigena-in-bici-1.000-km-per-sfidare-il-parkinson_8a9388c5-9680-4428-a3c8-a0c758fba293.html</v>
+        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/11/14/prime-pagine-niente-intesa-sulla-commissione-ue-attacco-dei-socialisti-al-ppe_fed4af3d-4181-4e3a-9a88-9a50e5ea9b89.html</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Salvini da Orban: 'Urgente fermare il conflitto in Ucraina'</v>
+        <v>I videogame sono al riparo dalle minacce informatiche?</v>
       </c>
       <c r="B93" t="str">
-        <v>https://www.ansa.it/sito/notizie/politica/2024/09/20/salvini-da-orban-urgente-fermare-il-conflitto-in-ucraina_d91f03be-df72-4778-8a65-dc7ce66f13f4.html</v>
+        <v>https://www.ansa.it/sito/podcast/ansa_verified/2024/11/13/i-videogame-sono-al-riparo-dalle-minacce-informatiche_37f3dfdc-400b-4ff8-985c-c32c822a988d.html</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Regionali il 17 e 18 novembre in Umbria</v>
+        <v>L’onda arancione spinge Sinner alle semifinali</v>
       </c>
       <c r="B94" t="str">
-        <v>https://www.ansa.it/umbria/notizie/2024/09/21/-regionali-il-17-e-18-novembre-in-umbria-_bee309fe-ae6b-495b-a65e-d213f65c2f90.html</v>
+        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/11/13/londa-arancione-spinge-sinner-allesemifinali_44bc6f6c-c862-4e0b-8a4f-cffd45a64c3f.html</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Giorgetti: "L'autonomia è efficienza e risparmio di spesa"</v>
+        <v>Venduto dopo anni Ca' Dario, il palazzo maledetto a Venezia</v>
       </c>
       <c r="B95" t="str">
-        <v>https://www.ansa.it/sito/notizie/economia/2024/09/18/giorgetti-lautonomia-e-efficienza-e-risparmio-di-spesa_e737f543-12f8-455f-ad6f-2e69740496bc.html</v>
+        <v>https://www.ansa.it/veneto/notizie/2024/11/14/venduto-dopo-anni-ca-dario-il-palazzo-maledetto-a-venezia_dc4e30dd-cead-4f09-b02f-90f64eb2b5c0.html</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Cittadinanza, una corsa contro il tempo per il referendum</v>
+        <v>Torna a suonare in hospice e incide una canzone</v>
       </c>
       <c r="B96" t="str">
-        <v>https://www.ansa.it/sito/notizie/politica/2024/09/20/cittadinanza-corsa-contro-il-tempo-per-il-referendum_afeeec43-f6f0-4120-89b8-1a7e5b8a77df.html</v>
+        <v>https://www.ansa.it/puglia/notizie/2024/11/11/torna-a-suonare-in-hospice-e-incide-una-canzone_b0949ae7-3577-43ce-8d28-d99c0e67860e.html</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>FOCUS | Gino Paoli: "Mai avrei immaginato di arrivare a 90 anni"</v>
+        <v>La foto del bancario di Città di Castello conquista la Nasa</v>
       </c>
       <c r="B97" t="str">
-        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/09/21/focus-gino-paoli-mai-avrei-immaginato-di-arrivare-a-90-anni_8565be2b-5d64-4532-912a-137e5ab1825b.html</v>
+        <v>https://www.ansa.it/umbria/notizie/2024/11/10/la-foto-del-bancario-di-citta-di-castello-conquista-la-nasa_63e0d77d-11a0-4e0a-8943-5e1efdac3ade.html</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Routine</v>
+        <v>Da architetto ad agricoltore in un borgo: 'Ora assaporo il tempo'</v>
       </c>
       <c r="B98" t="str">
-        <v>https://www.ansa.it/sito/podcast/la_parola_della_settimana/2024/09/21/routine_a08acc76-fb2a-4c19-af64-a79b6f910b87.html</v>
+        <v>https://www.ansa.it/puglia/notizie/2024/11/08/ansa-la-storiada-architetto-ad-agricoltoreassaporo-il-tempo_23b061ab-de7c-4ec2-9f8d-7779b6a7b7a7.html</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>L'Italia, l'Europa e Kiev</v>
+        <v>Giardini curativi in città per adattarsi al nuovo clima</v>
       </c>
       <c r="B99" t="str">
-        <v>https://www.ansa.it/sito/podcast/la_scelta_del_direttore/2024/09/20/litalia-leuropa-e-kiev_2bfb5eba-52c7-4eb3-b7a7-a2df094e5e5d.html</v>
+        <v>https://www.ansa.it/sardegna/notizie/2024/11/01/giardini-curativi-in-citta-per-adattarsi-al-nuovo-clima_66ee319f-9988-4012-b09a-b2cf70c44e3e.html</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>FOCUS | Neonati morti, uno è morto dissanguato</v>
+        <v>Prima a donare il sangue al pediatrico Meyer, poi il fatidico sì in Comune</v>
       </c>
       <c r="B100" t="str">
-        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/09/20/focus-neonati-morti-uno-e-morto-dissanguato_615ea43e-52e2-445d-a7ef-4dc0282f94eb.html</v>
+        <v>https://www.ansa.it/toscana/notizie/2024/10/31/prima-a-donare-il-sangue-al-pediatrico-meyer-poi-il-fatidico-si-in-comune_287cd44d-d414-4792-aa70-908049015b36.html</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Weekend al cinema, da Venezia 81 arriva Vermiglio.</v>
+        <v>Il Papa cita i 'panzerotti' nell'enciclica Dilexit nos</v>
       </c>
       <c r="B101" t="str">
-        <v>https://www.ansa.it/sito/podcast/cinema_ieri_oggi_domani/2024/09/20/weekend-al-cinema-da-venezia-81-arriva-vermiglio._cf9cde18-63d5-492f-afca-1ed1e609fe35.html</v>
+        <v>https://www.ansa.it/puglia/notizie/2024/10/25/panzerotti-e-ia-il-papa-cita-specialita-pugliese-in-enciclica_cf32f4f0-68b3-47e2-80ca-f5927aba97ae.html</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>FOCUS | Un'altra alluvione in Romagna, paura e sfollati</v>
+        <v>Raoul Chiesa, l'hacker etico che ha scelto la Sardegna per vivere</v>
       </c>
       <c r="B102" t="str">
-        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/09/20/focus-unaltra-alluvione-in-romagna-paura-e-sfollati_894f64a6-e78b-4858-8761-ba5732510824.html</v>
+        <v>https://www.ansa.it/sardegna/notizie/2024/10/25/raoul-chiesalhacker-etico-che-ha-scelto-la-sardegna-per-vivere_397c4581-421e-4230-a65d-4392542ad709.html</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>PRIME PAGINE | Armi in Russia, sì dell'Europa. Italiani divisi</v>
+        <v>Trekking per non vedenti, un progetto che parte dalle Marche</v>
       </c>
       <c r="B103" t="str">
-        <v>https://www.ansa.it/sito/podcast/ansa_voice_daily/2024/09/20/prime-pagine-armi-in-russia-si-delleuropa.-italiani-divisi_5db1d3d1-4bba-4792-97a8-d15835e072ea.html</v>
+        <v>https://www.ansa.it/marche/notizie/2024/10/25/trekking-per-non-vedenti-un-progetto-che-parte-dalle-marche_1f31ed28-215a-4e00-bdf8-a4e0898d7033.html</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Alla scoperta di Destini in fiamme, Trenque Lauquen e Mrs Fletcher</v>
+        <v>A Oristano la più antica famiglia di orafi artigiani in Sardegna</v>
       </c>
       <c r="B104" t="str">
-        <v>https://www.ansa.it/sito/podcast/siamo_serie/2024/09/19/alla-scoperta-di-destini-in-fiamme-trenque-lauquen-e-mrs-fletcher_32819837-1ca5-43cc-b4d9-3849fcd30354.html</v>
+        <v>https://www.ansa.it/sardegna/notizie/2024/10/24/a-oristano-la-piu-antica-famiglia-di-orafi-artigiani-in-sardegna_f362bac3-6b93-48e3-af73-dc53a22da609.html</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Bonus Natale, 100 euro in tredicesima, arriverà su richiesta del lavoratore</v>
+        <v>A Pavia 'Co-housing' fra universitari e over 65</v>
       </c>
       <c r="B105" t="str">
-        <v>https://www.ansa.it/sito/notizie/economia/2024/09/21/bonus-natale-100-euro-in-tredicesima-su-richiesta_24e47149-2e11-45b8-b6e0-1b01e3e73d5f.html</v>
+        <v>https://www.ansa.it/lombardia/notizie/2024/10/22/a-pavia-co-housing-fra-universitari-e-over-65_539aa50e-ada6-40a1-8f5b-25553f6cbfd9.html</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Urso: '15 manifestazioni di interesse per l'ex Ilva'</v>
+        <v>Tajani contro Orsini: 'I cattivi maestri fomentano la violenza'</v>
       </c>
       <c r="B106" t="str">
-        <v>https://www.ansa.it/sito/notizie/economia/2024/09/21/urso-15-manifestazioni-di-interesse-per-lex-ilva_561d295e-12ec-4f12-83ba-7eaf8b83334b.html</v>
-      </c>
-    </row>
-    <row r="107" xml:space="preserve">
-      <c r="A107" t="str" xml:space="preserve">
-        <v xml:space="preserve">Regolamento patente a punti,
-al via l'iter per le aziende</v>
+        <v>https://www.ansa.it/sito/notizie/politica/2024/11/14/tajani-contro-orsini-i-cattivi-maestri-fomentano-la-violenza_9ab2869a-8fff-4bd8-8f1d-9340097931e6.html</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>Arresto in flagranza differita, è legge la salva-sanitari</v>
       </c>
       <c r="B107" t="str">
-        <v>https://www.ansa.it/sito/notizie/economia/2024/09/21/regole-patente-a-punti-in-gazzetta-a-via-iter-per-aziende_68604226-32eb-4103-9c1b-88aadfd49060.html</v>
+        <v>https://www.ansa.it/sito/notizie/politica/2024/11/13/violenze-su-sanitari-via-libera-della-camera-al-dl-per-il-contrasto_0c066f20-d907-4ec4-bfe2-420e42702632.html</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Lo schiaffo di Berlino, non vende altre quote di Commerzbank</v>
+        <v>Giorgetti rilancia sull'Irpef. Rai, palla al Parlamento</v>
       </c>
       <c r="B108" t="str">
-        <v>https://www.ansa.it/sito/notizie/economia/2024/09/20/commerzbank-non-si-vende-piu-il-governo-resta-socio_2cc35858-57bf-4850-8a3e-6b84181839df.html</v>
+        <v>https://www.ansa.it/sito/notizie/politica/2024/11/13/giorgetti-rilancia-sullirpef.-rai-palla-al-parlamento_b2df604a-535d-4beb-946f-4c023643e476.html</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Ania, il clima minaccia tutti. Assicurazioni fondamentali</v>
+        <v>La Commissione del Csm vota per la tutela dei magistrati di Bologna</v>
       </c>
       <c r="B109" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/Ania/2024/09/20/ania-per-minaccia-clima-programmi-di-polizze-pubblico-privati_256846e3-1b85-4c7c-b390-f13180feaabc.html</v>
+        <v>https://www.ansa.it/sito/notizie/politica/2024/11/14/la-commissione-del-csm-vota-per-la-tutela-dei-magistrati-di-bologna_656f8738-e4e9-441e-8337-9b8e8aa2debf.html</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>'Storie di successo Made in Italy', tra identità e innovazione</v>
+        <v>L'Istat conferma, l'inflazione ad ottobre sale a +0,9%</v>
       </c>
       <c r="B110" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/challenge-network/2024/09/20/storie-di-successo-made-in-italy-tra-identita-e-innovazione_fdb278d0-51bf-4ae5-bb82-c112b7586cde.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/pmi/2024/11/15/listat-conferma-linflazione-ad-ottobre-sale-a-09_9014a0e9-537b-4647-9240-149426162efc.html</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Creatività vale quasi 300 miliardi, cresce valore aggiunto</v>
+        <v>Generali, l'utile operativo sale a 5,4 miliardi in 9 mesi</v>
       </c>
       <c r="B111" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/unioncamere/2024/09/19/creativita-vale-quasi-300-miliardi-cresce-valore-aggiunto_cd877bfa-0c0a-468c-85ce-31ab15a4f0f0.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/2024/11/15/generali-lutile-operativo-sale-a-54-miliardi-in-9-mesi_34a02a34-3bd1-45cd-bd75-f41ca1f52e5a.html</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Marchesini fa festa in piazza Maggiore tra storia e futuro</v>
+        <v>Borsa: Milano poco mossa, corre Generali, realizzi su Mps</v>
       </c>
       <c r="B112" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/marchesini-group/2024/09/18/marchesini-fa-festa-in-piazza-maggiore-tra-storia-e-futuro_8db3087b-a2c5-4277-9481-5d438497a1db.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/2024/11/15/borsa-milano-poco-mossa-corre-generali-realizzi-su-mps_e1babbab-ac0d-4e12-a0a1-b31dca09ffea.html</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Eco Fest, la mobilità sostenibile dalle bici ai treni</v>
+        <v>Bankitalia,a settembre debito stabile a quasi 3mila miliardi</v>
       </c>
       <c r="B113" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/festival-della-mobilita/2024/09/18/eco-fest-la-mobilita-sostenibile-dalle-bici-ai-treni_ca1d2bdc-045d-4a61-b49f-dee0a9bfd4cb.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/2024/11/15/bankitaliaa-settembre-debito-stabile-a-quasi-3mila-miliardi_e85c4894-b3c5-4571-8764-69fceaf0a446.html</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Le ultime notizie e gli approfondimenti di Teleborsa</v>
+        <v>Unioncamere, più composizioni negoziate, salvi 10.000 lavoratori</v>
       </c>
       <c r="B114" t="str">
-        <v>https://teleborsa.ansa.it/</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/unioncamere/2024/11/14/unioncamere-piu-composizioni-negoziate-salvi-10.000-lavoratori_6613ba1a-6ac9-49da-839e-86027e6522f6.html</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Intesa Sanpaolo, per export di Lazio e Abruzzo +40% dal 2016</v>
+        <v>Ghirardi (Cdp), gioco di squadra per competitività e transizione</v>
       </c>
       <c r="B115" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/intesa-sanpaolo/2024/09/18/intesa-sanpaolo-per-export-di-lazio-e-abruzzo-40-dal-2016_f487df33-b116-48e4-93a2-a46ffb2957c3.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/Cdp/2024/11/13/ghirardi-cdp-gioco-di-squadra-per-competitivita-e-transizione_33d1160e-c784-4c5c-a977-6915a40578b5.html</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Al via Tempi di Recupero, progetto Safe per i rifiuti Raee</v>
+        <v>Intesa Sanpaolo, Up2Stars in due anni selezionate 80 startup</v>
       </c>
       <c r="B116" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/ansa2030/safe/2024/09/14/al-via-tempi-di-recupero-progetto-safe-per-i-rifiuti-raee_e5e6cc56-e93d-4ae9-8615-e698ffe71324.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/intesa-sanpaolo-2/2024/11/13/intesa-sanpaolo-up2stars-in-due-anni-selezionate-80-startup_cb8a3040-354a-4469-ad2b-480b1f8d16fe.html</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Ue, 'debutta il Comitato IA, focus su attuazione dell'AI Act</v>
+        <v>Roadshow dedicato al Made in Italy arriva a Firenze</v>
       </c>
       <c r="B117" t="str">
-        <v>https://www.ansa.it/osservatorio_intelligenza_artificiale/notizie/societa/2024/09/19/ue-debutta-il-comitato-ia-focus-su-attuazione-dellai-act_ce2c24c4-7d9b-421e-b84d-d3e687a10559.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/challenge-network/2024/11/12/roadshow-dedicato-al-made-in-italy-arriva-a-firenze_b3a4d04d-9231-4cc1-a6ae-274675b762ba.html</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>L'IA italiana si incontra a Napoli per Fair</v>
+        <v>A2a, conferma investimenti e punta su transizione competitiva</v>
       </c>
       <c r="B118" t="str">
-        <v>https://www.ansa.it/sito/notizie/eventi/2024/09/21/lia-italiana-si-incontra-a-napoli-per-fair_2785c75f-b402-4fac-8b08-3eea60a6ff67.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/a2a/2024/11/12/a2a-conferma-investimenti-e-punta-su-transizione-competitiva_d1555943-035c-4b8f-814c-c0684146bfff.html</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Studio, IA contribuisce a peggiorare credibilità delle elezioni</v>
+        <v>Le ultime notizie e gli approfondimenti di Teleborsa</v>
       </c>
       <c r="B119" t="str">
-        <v>https://www.ansa.it/osservatorio_intelligenza_artificiale/notizie/societa/2024/09/19/studio-ia-contribuisce-a-peggiorare-credibilita-delle-elezioni_f1f0b531-5d6b-42ee-b1b5-a00b4cbff0d9.html</v>
+        <v>https://teleborsa.ansa.it/</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Stellantis utilizza l'IA per aumentare l'efficienza produttiva</v>
+        <v>L'agricoltura alla sfida della AI, un incontro a Cesena</v>
       </c>
       <c r="B120" t="str">
-        <v>https://www.ansa.it/osservatorio_intelligenza_artificiale/notizie/societa/2024/09/19/stellantis-utilizza-lia-per-aumentare-lefficienza-produttiva_7796924c-c2d3-4550-928e-65684506219f.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/camera-commercio-della-romagna/2024/11/12/lagricoltura-alla-sfida-della-ai-un-incontro-a-cesena_5e398809-7f8a-4cbc-9f40-ecf70613eeb9.html</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Iss, un over 65 su 7 è a rischio di isolamento sociale</v>
+        <v>Trenitalia, rinnovato accordo con Ferrovie Federali Svizzere</v>
       </c>
       <c r="B121" t="str">
-        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/09/19/iss-un-over-65-su-7-e-a-rischio-di-isolamento-sociale_fee3ae04-be2e-4dfc-9164-72276f604aa0.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/FS/2024/11/08/trenitalia-rinnovato-accordo-con-ferrovie-federali-svizzere_2af7153f-9a5d-4839-9ecc-3934f0c62596.html</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Assica, Sardegna indenne da Peste suina dopo oltre 40 anni</v>
+        <v>Gaetz, Gabbard e Hegseth. La prova di forza di Trump</v>
       </c>
       <c r="B122" t="str">
-        <v>https://www.ansa.it/canale_terraegusto/notizie/cibo_e_salute/2024/09/20/assica-sardegna-indenne-da-peste-suina-dopo-oltre-40-anni_6748d3f1-78dd-4bae-b9a0-2074da1a144e.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/nordamerica/2024/11/14/gaetz-gabbard-e-hegseth.-la-prova-di-forza-di-trump_54a6abaf-1b3f-425c-9a5e-7d4e29dd86af.html</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Classe G elettrica mostra i muscoli nelle cave di Carrara</v>
+        <v>Nyt, incontro Musk-ambasciatore Iran a Onu</v>
       </c>
       <c r="B123" t="str">
-        <v>https://www.ansa.it/canale_motori/notizie/novita_anticipazione/2024/09/21/classe-g-elettrica-mostra-i-muscoli-nelle-cave-di-carrara_cb3fcafb-25f3-4374-ac44-d6108f61f18a.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/2024/11/14/nyt-incontro-musk-ambasciatore-iran-a-onu_d9b5b48f-9c7f-411a-89ce-11d68b2fdfbc.html</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>YouTube spinge sull'IA e lo streaming, più strumenti ai creativi</v>
+        <v>Trump nomina ex capo della Sec procuratore a Manhattan</v>
       </c>
       <c r="B124" t="str">
-        <v>https://www.ansa.it/canale_tecnologia/notizie/tlc/2024/09/19/youtube-spinge-su-ia-e-streaming-piu-strumenti-ai-creativi_cd2bb921-d043-4e76-8b51-edefe1d13d6d.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/2024/11/15/trump-nomina-ex-capo-della-sec-procuratore-a-manhattan_9304a70b-0057-4f0b-b523-e6ee8ac41da0.html</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>La CO2 ha guidato il clima negli ultimi 485 milioni di anni</v>
+        <v>Ai repubblicani maggioranza alla Camera, Johnson confermato speaker</v>
       </c>
       <c r="B125" t="str">
-        <v>https://www.ansa.it/canale_scienza/notizie/terra_poli/2024/09/21/la-co2-ha-guidato-il-clima-negli-ultimi-485-milioni-di-anni_ce1bec6c-f47d-49bf-be5e-107945f8ec77.html</v>
+        <v>https://www.ansa.it/sito/notizie/mondo/2024/11/14/ai-repubblicani-maggioranza-alla-camera-johnson-confermato-speaker_4d09d3f4-8363-4390-ba81-848e3eaef300.html</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Lusso e mass market, dall'antitesi all'ibrido contemporaneo</v>
+        <v>Expo 2025 Osaka firma protocollo d'intesa con l'Asi</v>
       </c>
       <c r="B126" t="str">
-        <v>https://www.ansa.it/canale_lifestyle/notizie/lusso/2024/09/21/lusso-e-mass-market-dallantitesi-allibrido-contemporaneo_a026efc4-a217-43dc-9d6d-591edc0cb0b8.html</v>
+        <v>https://www.ansa.it/expo_2025_osaka/notizie/2024/11/13/expo-2025-osaka-firma-protocollo-dintesa-con-lasi_bcb762cf-43ae-4ac3-a858-85c59b9aa0f0.html</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Le mostre del weekend, da Munch al Surrealismo</v>
+        <v>(Re)Immagini - L’IA, l’umano e la co-creazione</v>
       </c>
       <c r="B127" t="str">
-        <v>https://www.ansa.it/canale_viaggi/notizie/arte/2024/09/11/le-mostre-del-weekend-da-munch-al-surrealismo_c0bc1ffd-25ce-432e-8946-7ff4690882eb.html</v>
+        <v>https://www.ansa.it/osservatorio_intelligenza_artificiale/notizie/approfondimenti/2024/11/13/reimmagini-lia-lumano-e-la-co-creazione_86a99924-09fc-4ff6-82ea-aa4201f14aea.html</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Start up brevetta 'boa' per consentire nuoto a non vedenti</v>
+        <v>Ue, presentate prime proposte per fabbriche IA, c'è anche Italia</v>
       </c>
       <c r="B128" t="str">
-        <v>https://www.ansa.it/responsabilmente/notizie/accessibilita/2024/09/19/start-up-brevetta-boa-per-consentire-nuoto-a-non-vedenti_329b88eb-55bd-4c29-a38b-795f932ed639.html</v>
+        <v>https://www.ansa.it/osservatorio_intelligenza_artificiale/notizie/societa/2024/11/11/ue-presentate-prime-proposte-per-fabbriche-ia-ce-anche-italia_c64acb2c-1428-4280-a505-d23a715d00eb.html</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Salvini says no to compulsory-home-insurance idea</v>
+        <v>YouTube lancia l'IA che crea nuove versioni di brani famosi</v>
       </c>
       <c r="B129" t="str">
-        <v>https://www.ansa.it/english/news/politics/2024/09/21/salvini-says-no-to-compulsory-home-insurance-idea_3ec094c9-d279-4216-98d7-77f53b6528db.html</v>
+        <v>https://www.ansa.it/osservatorio_intelligenza_artificiale/notizie/societa/2024/11/13/youtube-lancia-lia-che-crea-nuove-versioni-di-brani-famosi_8ccea67c-b5ef-4efc-a73f-fb43336e1c52.html</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Culture G7 concludes with freedom-of-expression pledge</v>
+        <v>Translated e Cineca addestreranno in Italia l'IA che traduce</v>
       </c>
       <c r="B130" t="str">
-        <v>https://www.ansa.it/english/news/politics/2024/09/21/culture-g7-concludes-with-freedom-of-expression-pledge_fdf261ae-3fdd-4d8b-95c2-fc7c70aad4a3.html</v>
+        <v>https://www.ansa.it/osservatorio_intelligenza_artificiale/notizie/societa/2024/11/13/translated-e-cineca-addestreranno-in-italia-lia-che-traduce_2e1fd19f-2aed-417a-87b8-88595abc5018.html</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Madonna stars at Dolce &amp; Gabbana fashion show in Milan</v>
+        <v>Deloitte, sull'IA forti investimenti delle imprese</v>
       </c>
       <c r="B131" t="str">
-        <v>https://www.ansa.it/english/news/lifestyle/fashion_luxury/2024/09/21/madonna-stars-at-dolce-gabbana-fashion-show_f79c43af-417d-4264-b952-e518ee9b94b9.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/postit/Deloitte/2024/11/13/deloitte-sullia-forti-investimenti-delle-imprese_c30eb91b-9023-42fe-a5b9-4b57fb735157.html</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Sale a settembre la fiducia dei consumatori nell'Eurozona</v>
+        <v>Al via campagna 'In farmacia per i bambini' di Italia e Haiti</v>
       </c>
       <c r="B132" t="str">
-        <v>https://www.ansa.it/europa/notizie/rubriche/altrenews/2024/09/20/sale-a-settembre-la-fiducia-dei-consumatori-nelleurozona_012966ff-1d1b-45a2-a841-5773fd6c4a73.html</v>
+        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/11/14/al-via-campagna-in-farmacia-per-i-bambini-di-italia-e-haiti_f5cd3e55-bd87-4d79-b078-079ba60fb5bf.html</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Urso, nei prossimi giorni presentiamo proposta italiana su auto</v>
+        <v>E' caro prezzi per cacao, caffè e tè e spesa dei paesi ricchi corre</v>
       </c>
       <c r="B133" t="str">
-        <v>https://www.ansa.it/europa/notizie/rubriche/altrenews/2024/09/20/urso-nei-prossimi-giorni-presentiamo-proposta-italiana-su-auto_673ac31b-cc2f-4b30-b112-1cab641bcd1a.html</v>
+        <v>https://www.ansa.it/canale_terraegusto/notizie/mondo_agricolo/2024/11/14/caro-prezzi-di-cacaocaffe-e-te-e-spesa-dei-paesi-ricchi-corre_4abbeaf2-7cd2-441b-ae1a-22f90c6f3033.html</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Presidenza ungherese in Ue: "Sulle auto adattare il target del clima al mercato"</v>
+        <v>Car of the Year 2025, ecco la lista delle sette finaliste</v>
       </c>
       <c r="B134" t="str">
-        <v>https://www.ansa.it/europa/notizie/rubriche/altrenews/2024/09/20/presidenza-ungherese-in-ue-sulle-auto-adattare-il-target-del-clima-al-mercato_65aceb5a-abe5-4f72-a61a-f9661540700c.html</v>
+        <v>https://www.ansa.it/canale_motori/notizie/mondo_motori/2024/11/15/car-of-the-year-2025-ecco-la-lista-delle-sette-finaliste_ead486e6-a059-445e-b83a-7de794a790d9.html</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Attacco israeliano nella roccaforte di Hezbollah a Beirut</v>
+        <v>Frena l'identità digitale, usata solo da 6,1 mln di italiani</v>
       </c>
       <c r="B135" t="str">
-        <v>https://www.ansa.it/ansamed/it/notizie/rubriche/cronaca/2024/09/20/attacco-israeliano-nella-roccaforte-di-hezbollah-a-beirut_bf9c0998-c715-4ca3-96e0-9ef7771c578c.html</v>
+        <v>https://www.ansa.it/canale_tecnologia/notizie/future_tech/2024/11/14/frena-lidentita-digitale-usata-solo-da-61-mln-di-italiani_a73a219b-892c-4157-82f7-8f30a2547633.html</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Tecnologia Ispra esplora le montagne sommerse nel Mediterraneo</v>
+        <v>Progettata una superficie che interagisce con la luce</v>
       </c>
       <c r="B136" t="str">
-        <v>https://www.ansa.it/ansamed/it/notizie/rubriche/ambiente/2024/09/20/tecnologia-ispra-esplora-montagne-sommerse-nel-mediterraneo_5a0e6ba2-ae01-47fc-bef2-61c7bbd0f18a.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/fisica_matematica/2024/11/15/progettata-una-superficie-che-interagisce-con-la-luce-_25cf4760-e332-4242-b66c-20015ac1bfdb.html</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Tunisia: Confimprese Italia e Conect uniscono le loro forze</v>
+        <v>Mangiare sano e felice, valgono le regole della nonna riportate a oggi</v>
       </c>
       <c r="B137" t="str">
-        <v>https://www.ansa.it/ansamed/it/notizie/rubriche/economia/2024/09/20/tunisia-confimprese-italia-e-conect-uniscono-le-loro-forze_774cf17b-5619-4621-bc6b-a75012f3c0c7.html</v>
+        <v>https://www.ansa.it/canale_lifestyle/notizie/food/2024/11/13/mangiare-sano-e-felice-valgono-le-regole-della-nonna-riportate-a-oggi_3b8e22b7-0b27-4546-a551-19b3307ee5f6.html</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Vucic, 'la tomba di Tito non verrà rimossa'</v>
+        <v>Dai testi agli abiti, apre a Londra il museo su David Bowie</v>
       </c>
       <c r="B138" t="str">
-        <v>https://www.ansa.it/nuova_europa/it/notizie/rubriche/altrenews/2024/09/21/vucic-la-tomba-di-tito-non-verra-rimossa_811d627a-7597-4bd8-9635-3a69f93c9978.html</v>
+        <v>https://www.ansa.it/canale_viaggi/notizie/libri_film/2024/11/03/dai-testi-agli-abiti-apre-a-londra-il-museo-su-david-bowie_032d475f-c0d6-4e4e-9b0d-50066f71855a.html</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Il vento dell'ultradestra soffia anche sul Brandeburgo</v>
+        <v>Novità in Val d'Aosta per lo Sportello sul passaggio scuola-lavoro dedicato ai disabili</v>
       </c>
       <c r="B139" t="str">
-        <v>https://www.ansa.it/nuova_europa/it/notizie/rubriche/altrenews/2024/09/21/il-vento-dellultradestra-soffia-anche-sul-brandeburgo_4e26568f-f1ce-4027-919f-a76120586290.html</v>
+        <v>https://www.ansa.it/responsabilmente/notizie/accessibilita/2024/11/14/novita-per-sportello-passaggio-scuola-lavoro-dedicato-a-disabili_fef28802-9558-429b-a16d-f4b0e912454b.html</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Serbia, governo vara ripristino leva obbligatoria di 75 giorni</v>
+        <v>Italian inflation rose to 0.9% in October says Istat</v>
       </c>
       <c r="B140" t="str">
-        <v>https://www.ansa.it/nuova_europa/it/notizie/rubriche/politica/2024/09/21/serbia-governo-vara-ripristino-leva-obbligatoria-di-75-giorni_3aeb21ba-0a68-4605-b670-816097a266a7.html</v>
+        <v>https://www.ansa.it/english/news/business/2024/11/15/italian-inflation-rose-to-0.9-in-october-says-istat_7c7aa3a7-cdb3-40c9-a39e-1b7fa639429b.html</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Itália defende turismo como motor de desenvolvimento no G20</v>
+        <v>Some parts of autonomy law unconstitutional - top court</v>
       </c>
       <c r="B141" t="str">
-        <v>https://ansabrasil.com.br/brasil/noticias/viagem_e_turismo/2024/09/21/italia-defende-turismo-como-motor-de-desenvolvimento-no-g20_bb79e38a-2f7d-4d1f-9f9a-628c3863a166.html</v>
+        <v>https://www.ansa.it/english/news/politics/2024/11/14/some-parts-of-autonomy-law-unconstitutional-top-court_d31158c8-f1d3-42c8-9365-854b2d80cf26.html</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Boxeadora Imane Khelif chega a Milão durante Semana de Moda</v>
+        <v>18-yr-old and minor arrest over gang rape of girl</v>
       </c>
       <c r="B142" t="str">
-        <v>https://www.ansa.it/brasil/noticias/moda_e_sociedade/2024/09/21/boxeadora-imane-khelif-chega-a-milao-durante-semana-de-moda_bf33c616-cc3f-444b-87d9-a5802c136ef3.html</v>
+        <v>https://www.ansa.it/english/news/general_news/2024/11/14/18-yr-old-and-minor-arrest-over-gang-rape-of-girl_c69db4b7-3261-4219-8dac-022c40d6851b.html</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Madonna é homenageada em desfile da Dolce e Gabbana em Milão</v>
+        <v>Multa Ue da 800 milioni per il Marketplace di Facebook</v>
       </c>
       <c r="B143" t="str">
-        <v>https://www.ansa.it/brasil/noticias/moda_e_sociedade/2024/09/21/madonna-e-homenageada-em-desfile-da-dolce-e-gabbana-em-milao_f842a63b-2514-4749-9f2b-b23d8924e115.html</v>
+        <v>https://www.ansa.it/europa/notizie/rubriche/altrenews/2024/11/15/multa-ue-da-800-milioni-per-il-marketplace-di-facebook_e7855a99-03ce-45e3-9965-82b80b2067d8.html</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Imane Khelif en Semana de la Moda en Milán</v>
+        <v>Le nomine Ue travolgono Ursula, ora tocca ai leader</v>
       </c>
       <c r="B144" t="str">
-        <v>https://www.ansalatina.com/americalatina/noticia/cultura_y_moda/2024/09/21/imane-khelif-en-semana-de-la-moda-en-milan_f0ad6d96-acc8-4b5c-9467-e5e11ece2189.html</v>
+        <v>https://www.ansa.it/europa/notizie/rubriche/altrenews/2024/11/14/ansa-focus-le-nomine-ue-travolgono-ursula-ora-tocca-ai-leader_5619195a-9b09-45f8-8cd8-347a69834e6e.html</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Madonna, invitada e ícono de Dolce &amp; Gabbana</v>
+        <v>Via libera della Commissione europea a nuovo pagamento da 4 miliardi all'Ucraina</v>
       </c>
       <c r="B145" t="str">
-        <v>https://www.ansa.it/americalatina/noticia/cultura_y_moda/2024/09/21/madonna-invitada-e-icono-de-dolce-gabbana_52348d9b-5493-451a-9b0f-d6aadeb1acc5.html</v>
+        <v>https://www.ansa.it/europa/notizie/rubriche/altrenews/2024/11/14/-via-libera-ue-a-nuovo-pagamento-da-4-miliardi-allucraina-_6419cf0e-1360-44e4-94cf-8fc798ec0422.html</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>SeaWorld, 60 años entre turismo y conservación</v>
+        <v>Al via a Dubai il festival di musica dedicato ai giovani talenti</v>
       </c>
       <c r="B146" t="str">
-        <v>https://www.ansa.it/americalatina/noticia/entrevistas_especiales/2024/09/21/seaworld-60-anos-entre-turismo-y-conservacion_0f21414e-695c-4c00-bcae-68ed6fa6f789.html</v>
+        <v>https://www.ansa.it/ansamed/it/notizie/rubriche/nazioni/2024/11/14/al-via-a-dubai-il-festival-di-musica-dedicato-ai-giovani-talenti_035c2b21-f6cd-48cc-b78a-0f853a7c2ef0.html</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>呼吁科学家和教师不要阻挡西西里的望远镜</v>
+        <v>Unicef, in Libano 203 bambini uccisi da ottobre 2023</v>
       </c>
       <c r="B147" t="str">
-        <v>https://www.ansa.it/china/notizie/italia/2024/09/22/_90465fd8-e44c-4b58-b406-f9ba0a5e12f9.html</v>
+        <v>https://www.ansa.it/ansamed/it/notizie/rubriche/nazioni/2024/11/14/unicef-in-libano-203-bambini-uccisi-da-ottobre-2023_f7bf3797-0e1e-441c-afc3-45da9dbb8d14.html</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>伊拉克亲伊朗组织 "向以色列发射无人机</v>
+        <v>Un concerto per i migranti morti nel Mediterraneo di Ruth Kemma</v>
       </c>
       <c r="B148" t="str">
-        <v>https://www.ansa.it/china/notizie/mondo/2024/09/22/-_26494542-d674-4502-9ad6-30fd4b2fb905.html</v>
+        <v>https://www.ansa.it/ansamed/it/notizie/rubriche/cultura/2024/11/14/un-concerto-per-i-migranti-morti-nel-mediterraneo-di-ruth-kemma_362b5718-f3cf-4ed2-9333-48e61dc23813.html</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>伊朗，煤矿爆炸，30 人死亡</v>
+        <v>Fedriga, GO!2025 rafforza il legame tra il Fvg e la Slovenia</v>
       </c>
       <c r="B149" t="str">
-        <v>https://www.ansa.it/china/notizie/mondo/2024/09/22/30-_098ee6a7-843e-4497-aec8-b16bd955ddbc.html</v>
+        <v>https://www.ansa.it/nuova_europa/it/notizie/rubriche/altrenews/2024/11/14/fedriga-go2025-rafforza-il-legame-tra-il-fvg-e-la-slovenia_b3f64513-d651-4136-8696-b18b325f3018.html</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Il 'dissing' tra Fedez e Tony Effe finisce con la canzone per Chiara Ferragni</v>
+        <v>Piovani dirige La Vita Nuova a Praga</v>
       </c>
       <c r="B150" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/musica/2024/09/21/dissing-fedez-e-tony-effe-finisce-con-la-canzone-per-chiara_fb0e5ca8-158d-467b-b0d0-94f24ed1ed18.html</v>
+        <v>https://www.ansa.it/nuova_europa/it/notizie/rubriche/altrenews/2024/11/14/piovani-dirige-la-vita-nuova-a-praga_734a68e8-7400-4546-8f30-fe9e6813af71.html</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Federica Manzon con 'Alma' vince il Premio Campiello</v>
+        <v>Nel 2025 nuova rotta Ryanair dal Trieste Airport a Praga</v>
       </c>
       <c r="B151" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/libri/2024/09/21/federica-manzon-con-alma-vince-il-premio-campiello-con-101-voti_525c4716-081a-43b9-ace9-30d5012fcb00.html</v>
+        <v>https://www.ansa.it/nuova_europa/it/notizie/rubriche/infrastrutture/2024/11/14/nel-2025-nuova-rotta-ryanair-dal-trieste-airport-a-praga_ffaa35a5-6197-4c94-8b3d-37c9a344234f.html</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Richard Ford, il mio ultimo Bascombe e la felicità</v>
+        <v>Itália abre G7 do Turismo e defende 'renovação profunda' no setor</v>
       </c>
       <c r="B152" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/libri/2024/09/21/richard-ford-il-mio-ultimo-bascombe-e-la-felicita_3b000de4-fa5a-40f3-a7b8-9b63dcd82be3.html</v>
+        <v>https://ansabrasil.com.br/brasil/noticias/viagem_e_turismo/2024/11/14/italia-abre-g7-do-turismo-e-defende-renovacao-profunda-no-setor_46023e1e-dd56-4752-932c-6323bf3667a4.html</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Ornella Vanoni, 90 anni irresistibili</v>
+        <v>Site quer transformar turistas em 'gladiadores' no Coliseu e irrita Roma</v>
       </c>
       <c r="B153" t="str">
-        <v>https://www.ansa.it/sito/notizie/cultura/musica/2024/09/20/ornella-vanoni-90-anni-irresistibili_993b2294-80f1-4cc5-938a-7587f927e314.html</v>
+        <v>https://www.ansa.it/brasil/noticias/viagem_e_turismo/2024/11/14/site-quer-transformar-turistas-em-gladiadores-no-coliseu-e-irrita-roma_32e598e4-a99c-40d3-a550-432c365931c9.html</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>La Dante celebra l'italiano, tra comunità e 'simpatia'</v>
+        <v>Embaixada da Itália no Brasil receberá Salão do Vinho Italiano</v>
       </c>
       <c r="B154" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/cultura/societa-dante-alighieri-/2024/09/13/la-dante-celebra-litaliano-tra-comunita-e-simpatia_213911cd-efbe-42f1-b9e2-8b4d11341d34.html</v>
+        <v>https://www.ansa.it/brasil/noticias/vinho_e_gastronomia/2024/11/14/embaixada-da-italia-no-brasil-recebera-salao-do-vinho-italiano_695504b7-eba6-48be-9e4c-20943224d5c9.html</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>La Grande Brera in mostra al Palazzo Reale di Palermo</v>
+        <v>Costa Rica hacia nuevo récord de visitantes/gastos</v>
       </c>
       <c r="B155" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/cultura/fondazione-federico-ii/2024/09/10/la-grande-brera-in-mostra-al-palazzo-reale-di-palermo_5994d786-c424-4ebb-9b78-f1750552c93c.html</v>
+        <v>https://www.ansalatina.com/americalatina/noticia/viajes_y_turismo/2024/11/14/costa-rica-hacia-nuevo-record-de-visitantesgastos_6108ce4a-009e-4d40-a4e5-4db64bb5e33e.html</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>A Todi Umbria cinema, festival dei film italiani</v>
+        <v>Venden Ca' Dario, palacio maldito de Venecia</v>
       </c>
       <c r="B156" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/cultura/umbria-cinema-festival-di-todi/2024/09/09/a-todi-umbria-cinema-festival-dei-film-italiani_d8780ec6-dd9b-4ffc-8e02-91e615d70e58.html</v>
+        <v>https://www.ansa.it/americalatina/noticia/cultura_y_moda/2024/11/14/venden-ca-dario-palacio-maldito-de-venecia_5953db66-0808-416e-ab99-d022e151dc0c.html</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Illy, la tazzina si fa 'tela' e sostiene L’arte contemporanea</v>
+        <v>Italia moviliza 4 mil millones de euros para Inteligencia Artificial</v>
       </c>
       <c r="B157" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/cultura/illy-biennale-arte/2024/04/17/illy-la-tazzina-si-fa-tela-e-sostiene-larte-contemporanea_5b6b94e0-296a-404c-87ae-fe2e88fda154.html</v>
+        <v>https://www.ansa.it/americalatina/noticia/ciencia_y_tecnologia/2024/11/14/la-innovacion-es-motor-de-desarrollo_6b69804e-5202-4e45-9b73-7633517405e5.html</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Addio a Totò Schillaci, l'eroe delle notti magiche</v>
+        <v>在翁布里亚大区选举中，超过 701 000 人参加了投票</v>
       </c>
       <c r="B158" t="str">
-        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/18/morto-toto-schillaci-e-stato-leroe-delle-notti-magiche_91d2a449-c7f6-459a-9bae-6cb7e17b16a7.html</v>
+        <v>https://www.ansa.it/china/notizie/italia/2024/11/15/-701-000-_f0735b53-9d3c-4b9a-9dd1-981e48cf2f56.html</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>Pioggia di medaglie e di record per l'Italia alle Paralimpiadi</v>
+        <v>哈梅内伊顾问拉里贾尼抵达贝鲁特</v>
       </c>
       <c r="B159" t="str">
-        <v>https://www.ansa.it/sito/notizie/speciali/giochi-paralimpici/2024/09/08/italia-da-record-pancalli-a-parigi-una-rivoluzione_e14a0c45-55b2-4bae-a8dc-fda3f99da4a0.html</v>
+        <v>https://www.ansa.it/china/notizie/mondo/2024/11/15/_77cd3e5b-62bc-4627-924b-b5c9eee249d5.html</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Speciale scuola, si torna in classe. Ecco le novità</v>
+        <v>都灵支持帕尔的学生游行，"政府和施莱因的帮凶</v>
       </c>
       <c r="B160" t="str">
-        <v>https://www.ansa.it/sito/notizie/speciali/2024/08/23/speciale-scuola-dal-5-settembre-si-torna-in-classe.-il-calendario-per-regione_fec08c68-49b5-47d2-a148-299b8298bc70.html</v>
+        <v>https://www.ansa.it/china/notizie/italia/2024/11/15/_7b21084a-54a0-4d50-8d3c-f84372f65c7f.html</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Alain Delon, icona del cinema francese ed internazionale</v>
+        <v>Il Gladiatore 2, ecco il peplum del terzo millennio</v>
       </c>
       <c r="B161" t="str">
-        <v>https://www.ansa.it/sito/notizie/mondo/2024/08/18/e-morto-alain-delon-il-leggendario-attore-francese_633bc7f4-6acc-4174-9325-068a878e046c.html</v>
+        <v>https://www.ansa.it/sito/notizie/cultura/cinema/2024/11/14/il-gladiatore-2-ecco-il-peplum-del-terzo-millennio_3a1a1c94-8487-45e0-8c22-824d14e4f5e2.html</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>L'oro delle azzurre del volley alle Olimpiadi di Parigi 2024</v>
+        <v>Branduardi, per i 50 anni di musica il 'best of' con un inedito</v>
       </c>
       <c r="B162" t="str">
-        <v>https://www.ansa.it/olimpiadi_2024/notizie/2024/08/11/parigi-oro-per-le-azzurre-del-volley-il-12o-dellitalia_d3cabd29-64bb-41e7-9e08-f5323f830777.html</v>
+        <v>https://www.ansa.it/sito/notizie/cultura/musica/2024/11/14/branduardi-per-i-50-anni-di-musica-il-best-of-con-un-inedito_35c9b47b-0c6b-4409-b6af-6b4e4c6bab3f.html</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Cinque Vele di Legambiente, a Pollica il mare più bello</v>
+        <v>Alexia, canto il coraggio di essere vulnerabili</v>
       </c>
       <c r="B163" t="str">
-        <v>https://www.ansa.it/ansa2030/notizie/infrastrutture_citta/2024/06/21/cinque-vele-di-legambiente-a-pollica-il-mare-piu-bello_0c307fc2-60c9-406d-90d5-4729c8f2f946.html</v>
+        <v>https://www.ansa.it/sito/notizie/cultura/musica/2024/11/14/alexia-canto-il-coraggio-di-essere-vulnerabili_7572b5f7-4112-405c-8509-ca8bf02aa31f.html</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Trump il giorno dopo l'attentato: 'Non mi arrenderò mai'</v>
+        <v>Lunetta Savino, io magistrata in nuova serie tv 'Libera'</v>
       </c>
       <c r="B164" t="str">
-        <v>https://www.ansa.it/sito/notizie/speciali/editoriali/2024/07/14/trump-il-giorno-dopo-lattentato-non-mi-arrendero-mai-lo-speciale_886bcc34-5822-44e3-987f-da8c093ff6d9.html</v>
+        <v>https://www.ansa.it/sito/notizie/cultura/tv/2024/11/14/lunetta-savino-io-magistrata-in-nuova-serie-tv-libera_07b59563-9238-4f06-9c71-62ccd5e7c8c1.html</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Da n.1592 a n.1, in 6 anni un sogno diventa realtà</v>
+        <v>Manovra, la sfida è ridurre gli oltre 4.500 emendamenti a 600</v>
       </c>
       <c r="B165" t="str">
-        <v>https://www.ansa.it/sito/notizie/speciali/2024/06/04/sinner-da-n.1592-a-n.1in-6-anni-un-sogno-diventa-realta_b8f74974-214c-40d3-a61e-4b90c3c8d2df.html</v>
+        <v>https://www.ansa.it/sito/notizie/economia/2024/11/14/manovra-la-sfida-e-ridurre-gli-oltre-4.500-emendamenti-a-600-lo-speciale_ce4e63ee-84a0-4ce0-a8ed-85d862e7859b.html</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Riapre centrale nucleare Usa, fornirà energia a Microsoft per l'IA</v>
+        <v>Trump stravince e torna al potere: 'Fermerò le guerre'</v>
       </c>
       <c r="B166" t="str">
-        <v>https://www.ansa.it/canale_tecnologia/notizie/tecnologia/2024/09/20/riapre-centrale-nucleare-usa-fornira-energia-a-microsoft_d2b1ffa0-4cef-4603-93ea-5506f760f5a8.html</v>
+        <v>https://www.ansa.it/usa_2024/notizie/2024/11/07/usa-2024-xi-a-trump-cina-e-usa-vadano-daccordo-nella-nuova-era_3b299058-7a1d-4b12-b93e-4ca1a45b55a8.html</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Microsoft e Google energivore, consumano come l'Azerbaijan</v>
+        <v>Sempre più giovani frequentano un corso di difesa personale</v>
       </c>
       <c r="B167" t="str">
-        <v>https://www.ansa.it/canale_tecnologia/notizie/future_tech/2024/07/16/microsoft-e-google-energivore-consumano-come-lazerbaijan_491599ec-ba17-4b6d-9538-66742a38bc1a.html</v>
+        <v>https://www.ansa.it/sito/notizie/cronaca/2024/10/31/sempre-piu-giovani-donne-frequentano-un-corso-di-difesa-personale_73fa01f7-30af-4e3f-b0ad-4b00cdf0565a.html</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Meta investe in energia geotermica per i datacenter Usa</v>
+        <v>La strage delle donne, oltre novanta uccise nel 2024</v>
       </c>
       <c r="B168" t="str">
-        <v>https://www.ansa.it/canale_tecnologia/notizie/future_tech/2024/08/27/meta-investe-in-energia-geotermica-per-i-datacenter-usa_6c5f478b-e287-4493-aa6e-527054601681.html</v>
+        <v>https://www.ansa.it/sito/notizie/cronaca/2024/10/25/la-strage-delle-donne-oltre-novanta-uccise-nel-2024_473c70fd-f3f1-4c04-92af-ac8eb3b88849.html</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Crypto-asset, in Italia cresce l'utilizzo ma faro sugli illeciti</v>
+        <v>I Premi Nobel 2024</v>
       </c>
       <c r="B169" t="str">
-        <v>https://www.ansa.it/canale_tecnologia/notizie/tecnologia/2024/09/20/crypto-asset-in-italia-cresce-lutilizzo-ma-faro-sugli-illeciti_f31dfac8-0d2c-4c01-bfe4-1e8d17b62398.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/editoriali/2024/10/14/i-premi-nobel-2024_87c99e30-0884-4443-bfdf-73188e9ecd47.html</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Apple punta sulla riparabilità dei nuovi iPhone 16</v>
+        <v>Addio a Totò Schillaci, l'eroe delle notti magiche</v>
       </c>
       <c r="B170" t="str">
-        <v>https://www.ansa.it/canale_tecnologia/notizie/future_tech/2024/09/20/apple-punta-sulla-riparabilita-dei-nuovi-iphone-16_318f8f24-4479-4fa0-bfa8-04165f71f2a7.html</v>
+        <v>https://www.ansa.it/sito/notizie/sport/calcio/2024/09/18/morto-toto-schillaci-e-stato-leroe-delle-notti-magiche_91d2a449-c7f6-459a-9bae-6cb7e17b16a7.html</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Esperimento SocialAI, la piattaforma che rimpiazza gli umani con l'IA</v>
+        <v>Pioggia di medaglie e di record per l'Italia alle Paralimpiadi</v>
       </c>
       <c r="B171" t="str">
-        <v>https://www.ansa.it/canale_tecnologia/notizie/web_social/2024/09/20/esperimento-socialai-piattaforma-dove-si-parla-solo-con-i-bot_75e06954-7496-4b23-9b4d-3e3373c51e3b.html</v>
+        <v>https://www.ansa.it/sito/notizie/speciali/giochi-paralimpici/2024/09/08/italia-da-record-pancalli-a-parigi-una-rivoluzione_e14a0c45-55b2-4bae-a8dc-fda3f99da4a0.html</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Huawei presenta Watch GT5, il fitness incontra lo stile</v>
+        <v>L'oro delle azzurre del volley alle Olimpiadi di Parigi 2024</v>
       </c>
       <c r="B172" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/postit/Huawei/2024/09/19/huawei-presenta-watch-gt5-il-fitness-incontra-lo-stile_f8b3bcd1-5af0-4fa3-8db2-cea9346727e3.html</v>
+        <v>https://www.ansa.it/olimpiadi_2024/notizie/2024/08/11/parigi-oro-per-le-azzurre-del-volley-il-12o-dellitalia_d3cabd29-64bb-41e7-9e08-f5323f830777.html</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Per le imprese italiane serve uno 'Start up Act'</v>
+        <v>TikTok lancia un nuovo software per creare campagne pubblicitarie con l'IA</v>
       </c>
       <c r="B173" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/transito/2024/09/17/per-le-imprese-italiane-serve-uno-start-up-act_0e9d05bc-0d65-4794-9ef1-6c05885c0b96.html</v>
+        <v>https://www.ansa.it/canale_tecnologia/notizie/web_social/2024/11/15/tiktok-lancia-un-nuovo-software-per-creare-annunci-con-lia_87695cbd-625d-4eef-981b-fa7ec318eeb1.html</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Come rinasce un iPhone? La rivoluzione silenziosa di Swappie</v>
+        <v>Meta, dal 1 gennaio regole e condizioni d'uso più semplici</v>
       </c>
       <c r="B174" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/swappie/2024/09/02/come-rinasce-un-iphone-la-rivoluzione-silenziosa-di-swappie_99fc13ca-8a94-4e07-be7e-fb204b05c100.html</v>
+        <v>https://www.ansa.it/canale_tecnologia/notizie/web_social/2024/11/14/meta-dal-1-gennaio-regole-e-condizioni-duso-piu-semplici_471abd21-3222-4a6c-a5a8-ae41c417d0ed.html</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Il 'casual grandeur' di Gucci per la Jackie di oggi</v>
+        <v>Google porta l'IA di Gemini su iPhone con un'app</v>
       </c>
       <c r="B175" t="str">
-        <v>https://www.ansa.it/canale_lifestyle/notizie/moda/2024/09/20/il-casual-grandeur-di-gucci-per-la-jackie-di-oggi_c4e7e926-405d-4fce-9acd-4b18f9262cf0.html</v>
+        <v>https://www.ansa.it/canale_tecnologia/notizie/future_tech/2024/11/15/google-porta-lia-di-gemini-su-iphone-con-unapp_53a07039-9512-4da8-b610-b19d2467d171.html</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Artisti per l'Onu tappezzano di poster New York</v>
+        <v>Con Minecraft le migliori città ideali progettate da ragazzi</v>
       </c>
       <c r="B176" t="str">
-        <v>https://www.ansa.it/canale_lifestyle/notizie/tempo_libero/2024/09/20/artisti-per-lonu-tappezzano-di-poster-new-york_99c28239-0ccd-4b2f-9400-2856ea8b76d4.html</v>
+        <v>https://www.ansa.it/canale_tecnologia/notizie/software_app/2024/11/14/con-minecraft-le-migliori-citta-ideali-progettate-da-ragazzi_25b846c8-e7da-4739-b226-e1e5d8f77551.html</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>I supereroi di Prada sfidano gli algoritmi</v>
+        <v>TikTok Awards a inclusività, food e formazione</v>
       </c>
       <c r="B177" t="str">
-        <v>https://www.ansa.it/canale_lifestyle/notizie/moda/2024/09/19/i-supereroi-di-prada-sfidano-gli-algoritmi_93f3e18e-e7fe-40d4-a3ef-27206dfdef46.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/Ansait/tiktok/2024/11/14/tiktok-awards-a-inclusivita-food-e-formazione_2bdbf8c0-6667-4395-98dc-69eaa887f8fd.html</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Madonna velata nel pizzo nero alla sfilata di Dolce e Gabbana</v>
+        <v>Microsoft, eccellenze e IA possono trasformare l'Italia</v>
       </c>
       <c r="B178" t="str">
-        <v>https://www.ansa.it/canale_lifestyle/notizie/moda/2024/09/21/madonna-alla-sfilata-di-dolce-e-gabbana_7d8afcb5-2810-406a-aeb0-fb43627189d5.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/economia/microsoft/2024/10/23/nadella-dallai-grande-opportunita-di-crescita-per-litalia_5e7b1087-46c8-4aa0-9395-1754e727b53d.html</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Viaggi autunnali verso Alba e Assisi con i treni turistici</v>
+        <v>Pitti Uomo, la moda in un momento difficile, rischiare è la via d'uscita dalla crisi</v>
       </c>
       <c r="B179" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/fs_treni_turistici/2024/09/19/viaggi-autunnali-verso-alba-e-assisi-con-i-treni-turistici_3d9706b9-e227-47b6-a803-608c6b09fe2b.html</v>
+        <v>https://www.ansa.it/canale_lifestyle/notizie/moda/2024/11/13/pitti-uomo-la-moda-in-un-momento-difficile-rischiare-e-la-via-duscita-dalla-crisi_81b5024f-4bad-4b26-8102-8fcc5e782c60.html</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Salone nautico di Genova, più spazi e mille barche per la 64/ma edizione</v>
+        <v>Il calendario Pirelli torna al nudo, inno alla diversità</v>
       </c>
       <c r="B180" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/salone_nautico/2024/09/18/salone-nautico-genova-piu-spazi-e-mille-barche-per-64ma-edizione_3d60ea6a-523d-4550-aeb5-08664f26d4ee.html</v>
+        <v>https://www.ansa.it/canale_lifestyle/notizie/moda/2024/11/12/il-calendario-pirelli-torna-al-nudo-inno-alla-diversita_f23c0e11-1963-4016-818f-7679e5b3da04.html</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>'Kidult' e licensing, le nuove frontiere dei giocattoli</v>
+        <v>John Krasinski l'uomo più sexy del mondo 2024 secondo People</v>
       </c>
       <c r="B181" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/Assogiocattoli/2024/09/11/kidult-e-licensing-le-nuove-frontiere-dei-giocattoli_bd1eb727-bd15-4103-85a9-15febe34ddfe.html</v>
+        <v>https://www.ansa.it/canale_lifestyle/notizie/people/2024/11/13/john-krasinski-luomo-piu-sexy-del-mondo-2024-secondo-people_777fa405-7de0-4c58-a904-f563ac6253e4.html</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Arrivederci estate, è l’equinozio d’autunno</v>
+        <v>Yale offrirà un corso su Beyoncè il prossimo semestre</v>
       </c>
       <c r="B182" t="str">
-        <v>https://www.ansa.it/canale_scienza/notizie/spazio_astronomia/2024/09/22/arrivederci-estate-e-lequinozio-dautunno_96bf21f4-a6af-44ff-9d59-0f6688c412e9.html</v>
+        <v>https://www.ansa.it/canale_lifestyle/notizie/people/2024/11/12/yale-offrira-un-corso-su-beyonce-il-prossimo-semestre_64f5f75d-fc7d-429c-8843-190c9986e7b9.html</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Da un buco nero getti lunghi 140 volte la Via Lattea VIDEO</v>
+        <v>Il beauty italiano vola ad Hong Kong, +13,6% export in Asia</v>
       </c>
       <c r="B183" t="str">
-        <v>https://www.ansa.it/canale_scienza/notizie/spazio_astronomia/2024/09/20/da-un-buco-nero-getti-lunghi-140-volte-la-via-lattea-video_13324b51-e725-40ae-9148-64d8806f5611.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/Cosmetica_Italia_2/2024/11/13/il-beauty-italiano-vola-ad-hong-kong-136-export-in-asia_8fa4c568-3b61-4241-9106-38a09e9ed644.html</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>L'IA italiana si incontra a Napoli per Fair</v>
+        <v>Il silenzio parla, Coop con Differenza Donna contro violenza</v>
       </c>
       <c r="B184" t="str">
-        <v>https://www.ansa.it/canale_scienza/notizie/ricerca_istituzioni/2024/09/21/lia-italiana-si-incontra-a-napoli-per-fair_c16f1faa-f25e-4c28-8961-73a265023f46.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/ancc-coop/2024/11/12/il-silenzio-parla-coop-con-differenza-donna-contro-la-violenza_715abb30-2f3e-485c-b3c9-7193431994c2.html</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>La CO2 ha guidato il clima negli ultimi 485 milioni di anni</v>
+        <v>Calendario Lavazza 2025, celebra il blend e l'armonia</v>
       </c>
       <c r="B185" t="str">
-        <v>https://www.ansa.it/canale_scienza/notizie/terra_poli/2024/09/21/la-co2-ha-guidato-il-clima-negli-ultimi-485-milioni-di-anni_ce1bec6c-f47d-49bf-be5e-107945f8ec77.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/Lavazza/2024/11/07/calendario-lavazza-2025-celebra-il-blend-e-larmonia_7ad7be07-cc5d-40a0-81de-e2a840aebe46.html</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Mercedes Classe G elettrica mostra i muscoli nelle cave di Carrara</v>
+        <v>Milano città del Wellness: Technogym dona una palestra all'aperto</v>
       </c>
       <c r="B186" t="str">
-        <v>https://www.ansa.it/canale_motori/notizie/novita_anticipazione/2024/09/21/classe-g-elettrica-mostra-i-muscoli-nelle-cave-di-carrara_cb3fcafb-25f3-4374-ac44-d6108f61f18a.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_lifestyle/technogym/2024/09/25/milano-citta-del-wellness-technogym-dona-una-palestra-allaperto_c5d631b1-fe7d-48d6-80e0-6e7f20be4b34.html</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Debutto italiano a Genova per Classe G elettrica e PureSpeed</v>
+        <v>Cop29, oggi la giornata su energia e sicurezza</v>
       </c>
       <c r="B187" t="str">
-        <v>https://www.ansa.it/canale_motori/notizie/mondo_motori/2024/09/20/debutto-italiano-a-genova-per-classe-g-elettrica-e-purespeed_874abaf3-9077-47f5-a077-f61e87f5d660.html</v>
+        <v>https://www.ansa.it/ansa2030/notizie/lavoro_formazione/2024/11/15/cop29-oggi-la-giornata-su-energia-e-sicurezza_020e8e17-31ec-4e14-a20c-284327de00d1.html</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>Mercedes-Benz, Classe G elettrica mostra i muscoli nelle cave di Carrara</v>
+        <v>Draghi, bene ogni strumento per decarbonizzare, anche nucleare</v>
       </c>
       <c r="B188" t="str">
-        <v>https://www.ansa.it/canale_motori/videogallery/video_interviste/2024/09/21/mercedes-benz-classe-g-elettrica-mostra-i-muscoli-nelle-cave-di-carrara_3a704f97-0dda-4108-a8a9-cd3deef172f8.html</v>
+        <v>https://www.ansa.it/ansa2030/notizie/lavoro_formazione/2024/11/14/draghi-bene-ogni-strumento-per-decarbonizzare-anche-nucleare_23222cc3-d95b-423a-9050-cda8c95b5306.html</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Audi RS e-Tron GT Performance aristocrazia delle prestazioni</v>
+        <v>Consiglio Stato a Regioni, 'legiferare su aree idonee ma limiti'</v>
       </c>
       <c r="B189" t="str">
-        <v>https://www.ansa.it/canale_motori/notizie/novita_anticipazione/2024/09/21/audi-rs-e-tron-gt-performance-aristocrazia-delle-prestazioni_b8f9e9ff-d10d-48c6-9a46-69dc3dc2fdc9.html</v>
+        <v>https://www.ansa.it/ansa2030/notizie/energia_energie/2024/11/14/consiglio-stato-a-regioni-legiferare-su-aree-idonee-ma-limiti_22029fb8-f64d-42b4-b7db-e1a25d438a67.html</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Cento anni per la Milano-Varese, la prima autostrada del mondo</v>
+        <v>Consiglio di Stato sospende norma del Decreto aree idonee</v>
       </c>
       <c r="B190" t="str">
-        <v>https://www.ansa.it/canale_motori/notizie/mondo_motori/2024/09/22/cento-anni-per-la-milano-varese-la-prima-autostrada-del-mondo_d360a927-1efc-430c-a101-0e013035312a.html</v>
+        <v>https://www.ansa.it/ansa2030/notizie/energia_energie/2024/11/14/consiglio-di-stato-sospende-norma-del-decreto-aree-idonee_c25eb0bf-86c5-4e2e-81b4-4c30eb87ca69.html</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Tomasi (Autostrade), verso 'incremento moderato dei pedaggi'</v>
+        <v>A Giovanna Vitelli il premio EY imprenditore dell'anno 2024</v>
       </c>
       <c r="B191" t="str">
-        <v>https://www.ansa.it/canale_motori/notizie/mondo_motori/2024/09/21/tomasi-autostrade-verso-incremento-moderato-dei-pedaggi_24eaa5dd-50c2-44a0-8968-2c3e49e602b6.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/ey-italia/2024/11/07/a-giovanna-vitelli-il-premio-ey-imprenditore-dellanno-2024_ecfb3b0f-18ab-4679-a69b-be15da3f9e20.html</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>Nuovo Dacia Duster con full hybrid guarda al futuro</v>
+        <v>Heidelberg Materials svela la nuova gamma, CO2 giù del 30%</v>
       </c>
       <c r="B192" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_motori/Dacia/2024/09/19/nuovo-dacia-duster-con-full-hybrid-guarda-al-futuro-_506f8b64-71a2-4d5d-88b7-291332fe78ca.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/-heidelberg-materials/2024/11/07/heidelberg-materials-svela-la-nuova-gamma-co2-giu-del-30_97f2d6e6-c7c1-4cf8-a45a-acf64f9748c1.html</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Renault Rafale, suv coupé dalla gamma completa per ogni esigenza</v>
+        <v>Confimprese, centri commerciali in crescita moderata</v>
       </c>
       <c r="B193" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_motori/null/2024/09/16/renault-rafale-suv-coupe-dalla-gamma-completa-per-ogni-esigenza_1ccf5523-ac5a-482e-98a4-e8d4fc75a403.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/confimprese/2024/11/06/confimprese-centri-commerciali-in-crescita-moderata_24432405-20b7-4aed-b3b6-b35ac1029f8f.html</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Lexus auto ufficiale della 81/a Mostra del Cinema di Venezia</v>
+        <v>Grafton arriva in Italia per candidati Gen Z e Millennial</v>
       </c>
       <c r="B194" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_motori/Lexus/2024/08/28/lexus-auto-ufficiale-della-81a-mostra-del-cinema-di-venezia_98fb6635-c669-4e69-9fcd-da2206cdde55.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/grafton/2024/10/31/grafton-arriva-in-italia-per-candidati-gen-z-e-millennial_4373efee-5831-41eb-af04-ff670c49f361.html</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Ducati Multistrada V4 si rinnova tra tecnologia e comfort</v>
+        <v>Vodafone, la transizione gemella importante per 7 italiani su 10</v>
       </c>
       <c r="B195" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_motori/ducati-dwp/2024/07/25/nuova-ducati-panigale-v4-riscrive-limiti-delle-supersportive_6ba6a82e-91b0-4c24-9687-97bdfaa5e630.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/vodafone/2024/10/28/vodafone-la-transizione-gemella-importante-per-7-italiani-su-10-_a1e48d84-66c2-4855-9da9-375d12b67970.html</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>La sostenibilità secondo Volvo agli Electric Days 2024</v>
+        <v>Erg inaugura in Spagna il suo maggiore parco solare in Ue</v>
       </c>
       <c r="B196" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_motori/volvo/2024/06/07/la-sostenibilita-secondo-volvo-agli-electric-days-2024_6b1c3fb7-5e69-4f74-914f-ab4aaf780617.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/erg/2024/10/23/erg-inaugura-in-spagna-il-suo-parco-solare-piu-grande-deuropa_425edbf5-bcc5-46dc-b4a3-12a5314ca9a1.html</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Le grandi mostre d'autunno, da Munch a Ligabue</v>
+        <v>Randstad, con l'AI servono nuove figure umanistiche</v>
       </c>
       <c r="B197" t="str">
-        <v>https://www.ansa.it/canale_viaggi/notizie/arte/2024/08/22/le-grandi-mostre-dautunno-da-munch-a-ligabue_2103c1c8-8b21-4551-96ce-9761ac0de648.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/fondazione-randstad/2024/10/22/randstad-con-lai-servono-nuove-figure-umanistiche_941b8438-2682-4bbf-98ee-9ce58aa0a413.html</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Antiche Tracce, con realtà virtuale un corto sulle palafitte</v>
+        <v>Arriva l'ultima Superluna dell'anno DIRETTA ALLE 19,30</v>
       </c>
       <c r="B198" t="str">
-        <v>https://www.ansa.it/canale_viaggi/regione/lombardia/2024/09/20/antiche-tracce-con-realta-virtuale-un-corto-sulle-palafitte_d0213af9-08ca-4d1a-8fb0-27f159ad792b.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/spazio_astronomia/2024/11/15/arriva-lultima-superluna-dellanno-diretta-alle-1930_5237d363-59f0-4e52-b020-afe52f118e5b.html</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>A Lucca mostra celebra Mastroianni, locandine e colonne sonore</v>
+        <v>Evo, l'intelligenza artificiale che legge il genoma VIDEO</v>
       </c>
       <c r="B199" t="str">
-        <v>https://www.ansa.it/canale_viaggi/regione/toscana/2024/09/20/a-lucca-mostra-celebra-mastroianni-locandine-e-colonne-sonore_009e365e-1b7a-46e3-97ae-d32fa47b0601.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/frontiere/2024/11/15/evo-lintelligenza-artificiale-che-legge-il-genoma-video_37944324-cd59-4119-8966-c1c0910e333e.html</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Al via tour di Italia Romanica in quattro regioni</v>
+        <v>Progettata una superficie che interagisce con la luce</v>
       </c>
       <c r="B200" t="str">
-        <v>https://www.ansa.it/canale_viaggi/regione/sicilia/2024/09/20/al-via-tour-di-italia-romanica-in-quattro-regioni_012125c5-32a3-40c1-b95e-8218a661bc03.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/fisica_matematica/2024/11/15/progettata-una-superficie-che-interagisce-con-la-luce-_25cf4760-e332-4242-b66c-20015ac1bfdb.html</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Airbnb e le Colline Unesco del Prosecco, nasce una Accademia per gli Host</v>
+        <v>C'è un tunnel interstellare vicino al Sistema solare</v>
       </c>
       <c r="B201" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_viaggi/airbnb/2024/09/03/airbnb-e-le-colline-unesco-del-prosecco-nasce-una-accademia-per-gli_ba51ea63-be88-4c00-86d0-4622f26778d9.html</v>
+        <v>https://www.ansa.it/canale_scienza/notizie/spazio_astronomia/2024/11/14/ce-un-tunnel-interstellare-vicino-al-sistema-solare_8054af51-9d6d-4e81-83a8-da1caeffbdb6.html</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Aifa, iter veloce per gratuità del farmaco contro il virus sinciziale</v>
+        <v>L'IA italiana si incontra a Napoli per le sfide del futuro</v>
       </c>
       <c r="B202" t="str">
-        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/09/20/aifa-iter-veloce-per-gratuita-farmaco-contro-virus-sinciziale_013b67ef-493c-4d28-bba0-660aac4628c4.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_scienza/fondazione-fair/2024/09/24/lia-italiana-si-incontra-a-napoli-per-le-sfide-del-futuro_e124c47f-e5af-4ce6-b660-4cbe2f28f300.html</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Il falso mito della demenza, per 4 persone su 5 è un 'acciacco'</v>
+        <v>Car of the Year 2025, ecco la lista delle sette finaliste</v>
       </c>
       <c r="B203" t="str">
-        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/09/20/il-falso-mito-della-demenza-per-4-persone-su-5-e-un-acciacco_dc823909-8408-4735-b0c4-3168ba8cd93a.html</v>
+        <v>https://www.ansa.it/canale_motori/notizie/mondo_motori/2024/11/15/car-of-the-year-2025-ecco-la-lista-delle-sette-finaliste_ead486e6-a059-445e-b83a-7de794a790d9.html</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>L'Ue abroga le misure restrittive sulla peste suina in Sardegna</v>
+        <v>Monza rally show: svelato l'elenco delle prove speciali 2024</v>
       </c>
       <c r="B204" t="str">
-        <v>https://www.ansa.it/canale_saluteebenessere/notizie/medicina/2024/09/20/lue-abroga-misure-restrittive-sulla-peste-suina-in-sardegna_9e67ffac-0261-49d1-ae80-6eaf55c774f5.html</v>
+        <v>https://www.ansa.it/canale_motori/notizie/mondo_motori/2024/11/15/monza-rally-show-svelato-lelenco-delle-prove-speciali-2024_4338849a-eda7-42c4-bccd-00b2c73d85b0.html</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>Ok Ue all'uso del vaccino Mpox tra i 12 e i 17 anni</v>
+        <v>Bugatti W16 Mistral è l'auto scoperta più veloce al mondo</v>
       </c>
       <c r="B205" t="str">
-        <v>https://www.ansa.it/canale_saluteebenessere/notizie/focus_vaccini/2024/09/20/ok-ue-alluso-del-vaccino-mpox-tra-i-12-e-i-17-anni_23ce26bb-361a-4e4e-b6fa-7320054056f9.html</v>
+        <v>https://www.ansa.it/canale_motori/notizie/mondo_motori/2024/11/15/bugatti-w16-mistral-e-lauto-scoperta-piu-veloce-al-mondo_93bfef25-2a08-437e-9753-81780abd8b3e.html</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Forum Ambrosetti: Pnrr, in Sicilia migliorati servizi sanitari</v>
+        <v>Scania a IBE 2024 tra sostenibilità e tecnologia</v>
       </c>
       <c r="B206" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/ambrosetti/2024/09/20/forum-ambrosetti-pnrrin-sicilia-migliorati-servizi-sanitari-_8eb1c810-cd52-4396-a3cf-4474deceffdd.html</v>
+        <v>https://www.ansa.it/canale_motori/notizie/veicoli_commerciali/2024/11/15/scania-a-ibe-2024-tra-sostenibilita-e-tecnologia_2886b95e-473c-4b37-95af-de93a1098ede.html</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Diabete 1 e celiachia, tutto pronto per lo screening nei bimbi</v>
+        <v>Gruppo Piaggio ad EICMA tra storia e innovazione</v>
       </c>
       <c r="B207" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/apco/2024/09/17/diabete-1-e-celiachia-tutto-pronto-per-lo-screening-nei-bimbi_f84004b4-58d2-40e8-a6df-e7384798a278.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_motori/Piaggio/2024/11/05/gruppo-piaggio-ad-eicma-tra-storia-e-innovazione_dea602ef-5cab-4897-86e7-2033becb6a73.html</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Le creazioni di Dolce&amp;Gabbana in passerella a Milano</v>
+        <v>Al via l'81/a edizione di Eicma, 'è già da record'</v>
       </c>
       <c r="B208" t="str">
-        <v>https://www.ansa.it/sito/photogallery/moda/2024/09/21/le-creazioni-di-dolcegabbana-in-passerella-a-milano_d20e50a7-341c-462c-8f5d-adfbb0ea8ec7.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_motori/eicma/2024/11/05/al-via-l81a-edizione-di-eicma-e-gia-da-record_33904545-ce65-48cf-ac62-cd4cb420a5f1.html</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Il ministro Giuli in conferenza a margine del G7 Cultura</v>
+        <v>Nuova Niro Tri-Fuel contribuito Kia alla transizione facile</v>
       </c>
       <c r="B209" t="str">
-        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/09/21/il-ministro-giuli-in-conferenza-a-margine-del-g7-cultura_9eab7e9b-643d-4a72-852f-ae344bf5b917.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_motori/kia/2024/10/24/nuova-niro-tri-fuel-contribuito-kia-alla-transizione-facile_0a705f6d-364b-40ed-8d30-d25fc77adb3e.html</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Madonna alla sfilata di Dolce e Gabbana a Milano</v>
+        <v>Ducati Panigale e Streetfighter V2 protagoniste ad EICMA</v>
       </c>
       <c r="B210" t="str">
-        <v>https://www.ansa.it/sito/photogallery/moda/2024/09/21/madonna-alla-sfilata-di-dolce-e-gabbana-a-milano_618f6c97-7a73-46d4-9f82-9e14c980c1cc.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_motori/ducati-dwp/2024/11/05/ducati-panigale-e-streetfighter-v2-protagoniste-ad-eicma_32ccada7-5e07-4406-82f3-0446bea4ec98.html</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Corteo pro-Palestina dei laburisti a Liverpool</v>
+        <v>La sostenibilità secondo Volvo agli Electric Days 2024</v>
       </c>
       <c r="B211" t="str">
-        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/09/21/corteo-pro-palestina-dei-laburisti-a-liverpool_013e9e75-ef7b-4ace-80ae-4b7876686e25.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_motori/volvo/2024/06/07/la-sostenibilita-secondo-volvo-agli-electric-days-2024_6b1c3fb7-5e69-4f74-914f-ab4aaf780617.html</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>MotoGp: Misano; Francesco Bagnaia vince gara sprint</v>
+        <v>Le mostre del weekend, da Escher a Scianna</v>
       </c>
       <c r="B212" t="str">
-        <v>https://www.ansa.it/sito/photogallery/sport/2024/09/21/motogp-misano-francesco-bagnaia-vince-gara-sprint_c3bfb62f-02cd-4e1a-8cb9-784449a54f52.html</v>
+        <v>https://www.ansa.it/canale_viaggi/notizie/arte/2024/11/13/le-mostre-del-weekend-da-escher-a-scianna_d1af6d6f-797a-423a-becf-0dbde1ae528a.html</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Fumo dopo un raid Israeliano nel sud del Libano</v>
+        <v>Diriyah Art Futures, il primo hub d'arte digitale a Riad</v>
       </c>
       <c r="B213" t="str">
-        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/09/21/fumo-dopo-un-raid-israeliano-nel-sud-del-libano_63163315-deb1-45c7-baf9-301e453fd24d.html</v>
+        <v>https://www.ansa.it/canale_viaggi/notizie/mondo/2024/11/14/diriyah-art-futures-il-primo-hub-darte-digitale-a-riad_9b23feb1-7734-453a-95b9-56a295d5f24e.html</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Cate Blanchett al San Sebastian Film Festival</v>
+        <v>'In breve, Robert Doisneau' alla Galleria nazionale dell'Umbria</v>
       </c>
       <c r="B214" t="str">
-        <v>https://www.ansa.it/sito/photogallery/people/2024/09/21/cate-blanchett-al-san-sebastian-film-festival_589a5a7c-b308-4abb-9c09-56c7a32fa7dd.html</v>
+        <v>https://www.ansa.it/canale_viaggi/regione/umbria/2024/11/14/in-breve-robert-doisneau-alla-galleria-nazionale-dellumbria_c193e53a-ebb2-4783-a92d-c99bd5dbf57b.html</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Budapest, il Danubio in piena</v>
+        <v>G7 Turismo: quello dei borghi vale 5 miliardi l'anno</v>
       </c>
       <c r="B215" t="str">
-        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/09/21/budapest-il-danubio-in-piena_4967cab8-404d-4186-9687-011e249f948c.html</v>
+        <v>https://www.ansa.it/canale_viaggi/notizie/itinerari/2024/11/14/g7-turismo-quello-dei-borghi-vale-5-miliardi-lanno_ae783cd6-9c4d-4abf-b269-d1c475dbd5ca.html</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Un viaggio in barca a vela per tutelare l'ambiente marino</v>
+        <v>Tra borghi e paesaggi, viaggio attraverso l'Italia d'autunno</v>
       </c>
       <c r="B216" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/ansa2030/q8-italia/2024/09/12/un-viaggio-in-barca-a-vela-per-tutelare-lambiente-marino_570dfcbb-72b7-490a-a56e-be98e91dba61.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_viaggi/viaggio-italiano/2024/10/11/tra-borghi-e-paesaggi-viaggio-attraverso-litalia-dautunno_d0358ef1-dd47-4c89-a312-802a18c2d08e.html</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Rapporto Coop 2024, per gli italiani una vita al risparmio</v>
+        <v>Dalla Pma alle nuove protesi, da fine anno i nuovi nomenclatori che rendono operativi i nuovi Lea: le novità</v>
       </c>
       <c r="B217" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/ancc-coop/2024/09/10/rapporto-coop-2024-per-gli-italiani-una-vita-al-risparmio_7d67ab37-4a65-4898-967e-b0656ad332b3.html</v>
+        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/11/15/dalla-procreazione-assistita-alla-consulenza-genetica-le-nuove-prestazioni-del-ssn_1f4bf055-fa15-4993-b7c6-1b4b0df0f6b8.html</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Inaugurato a Bologna il nuovo campus della Business school</v>
+        <v>Ok dell'Ue al farmaco anti-Alzheimer, è il primo a rallentare la malattia</v>
       </c>
       <c r="B218" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/ansa2030/bologna-business-school/2024/09/06/inaugurato-a-bologna-il-nuovo-campus-della-business-school_e8ad6568-c577-4593-968f-641f774bf9aa.html</v>
+        <v>https://www.ansa.it/canale_saluteebenessere/notizie/medicina/2024/11/15/ok-ue-a-farmaco-anti-alzheimer-il-primo-a-rallentare-malattia_1cc2d2de-83e0-4c45-9b51-7f9d7be0697c.html</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Pnrr: Enti abruzzesi al centro del Contest Formez ' PaOk!</v>
+        <v>Cresce il morbillo nel mondo, 10,3 milioni di casi nel 2023</v>
       </c>
       <c r="B219" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/economia/formez-pa/2024/09/12/pnrr-enti-abruzzesi-al-centro-del-contest-formez-paok_ef19e32f-dfb4-4efc-9634-da450ff6a9ae.html</v>
+        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/11/15/cresce-il-morbillo-nel-mondo-103-milioni-di-casi-nel-2023_b7eb6d92-35bd-41e8-a5bf-30b9893284f0.html</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>A Giffoni felicità diffusa, chiude nel segno di Giorgia</v>
+        <v>Il dl per contrastare le violenze sul personale sanitario è legge</v>
       </c>
       <c r="B220" t="str">
-        <v>https://www.ansa.it/ansacom/notizie/postit/Giffoni/2023/07/25/arca-sogno-di-interpretare-un-personaggio-storico_4758e09f-3936-435a-877e-9ad793a3c5b3.html</v>
+        <v>https://www.ansa.it/canale_saluteebenessere/notizie/sanita/2024/11/13/ok-aula-a-dl-per-contrastare-violenze-su-sanitari-e-legge_4491a3f2-3960-45f4-8547-0d306627e8f3.html</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>Onu in Libano, 'Medio Oriente sull'orlo della catastrofe'</v>
+        <v>Assosistema, 'verificare efficacia mascherine negli ospedali'</v>
       </c>
       <c r="B221" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/onu-in-libano-medio-oriente-sullorlo-della-catastrofe_c63e9898-71ba-49a0-8aab-aedcec870e12.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/TREM/2024/11/15/assosistema-verificare-efficacia-mascherine-negli-ospedali_105071ba-8707-4c40-8c6e-00e06b036640.html</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Gruppi filo-Iran iracheni, 'lanciati droni su Israele'</v>
+        <v>Innovazione in sanità, al via l'Health Innovation Show 2024</v>
       </c>
       <c r="B222" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/gruppi-filo-iran-iracheni-lanciati-droni-su-israele_f68c16fe-a69b-46f7-ae1f-4d46e2d0233f.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/fondazione-mesit/2024/11/11/innovazione-in-sanita-al-via-lhealth-innovation-show-2024-_11a931b4-c725-4a00-a753-618ea8876118.html</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Mosca, abbattuti 15 droni ucraini in cinque regioni russe</v>
+        <v>Dai Lea alla ricerca, le idee dei giovani per un Ssn migliore</v>
       </c>
       <c r="B223" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/mosca-abbattuti-15-droni-ucraini-in-cinque-regioni-russe_169cf069-5f93-44dd-86e0-6d679e28c36d.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/Novartis/2024/10/29/dai-lea-alla-ricerca-le-idee-dei-giovani-per-un-ssn-migliore_39a4833b-3347-4fe9-84f4-8f84ede8915e.html</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Israele chiude le scuole nelle zone di confine con Libano</v>
+        <v>A Milano prima giornata di convegno sulla salute del cervello</v>
       </c>
       <c r="B224" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/israele-chiude-le-scuole-nelle-zone-di-confine-con-libano_c08774df-8eb1-4367-bd1a-6cc7fe8d0818.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/fondazione-prada/2024/10/31/a-milano-prima-giornata-di-convegno-sulla-salute-del-cervello_ec318a1d-22ca-4d5c-a277-933d12e1d5fc.html</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Hezbollah, 'colpiti siti industriali militari in Israele'</v>
+        <v>Fondazione Mesit, 'Le risorse per la sanità vanno spese meglio'</v>
       </c>
       <c r="B225" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/hezbollah-colpiti-siti-industriali-militari-in-israele_88152d39-f9f6-4fc6-8b0e-1f0c2b581395.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/mesit/2024/10/22/farmindustria-alzare-tetti-della-spesa-e-interventi-sui-payback_bbc5607e-6f9a-4c8e-9b5e-317ed842b78b.html</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Idf, oltre 100 razzi lanciati dal Libano questa mattina</v>
+        <v>Un decesso su 6 per tumori, nel 2050 i casi aumenteranno del 77%</v>
       </c>
       <c r="B226" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/idf-oltre-100-razzi-lanciati-dal-libano-questa-mattina_ea35e65b-255b-4dcc-a894-5397442e5ab3.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/ail/2024/10/18/un-decesso-su-6-per-tumori-nel-2050-i-casi-aumenteranno-del-77_8a1ebd8c-b12c-4ce1-839c-5c2b8b739b45.html</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Iran, esplosione in una miniera di carbone, 30 morti</v>
+        <v>Bandi Gilead, premiati 58 progetti di innovazione e solidarietà</v>
       </c>
       <c r="B227" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/iran-esplosione-in-una-miniera-di-carbone-30-morti_abac790e-3e9c-4ed8-bc67-34f02c4834cd.html</v>
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/gilead-2/2024/10/17/bandi-gilead-premiati-58-progetti-di-innovazione-e-solidarieta_f754c354-a845-47f7-98f9-07475879091a.html</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Crollo palazzina: padre e figlio estratti vivi, morta bimba</v>
+        <v>Cop29: Al Gore alla sessione Climate Trace</v>
       </c>
       <c r="B228" t="str">
-        <v>https://www.ansa.it/sito/notizie/topnews/2024/09/22/crollo-palazzina-padre-e-figlio-estratti-vivi-morta-bimba_7d60b0d2-f757-4c0f-841c-859c5d575413.html</v>
+        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/11/15/cop29-al-gore-alla-sessione-climate-trace_b89f7854-2311-4234-b190-67a0e8f3353c.html</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Voli cancellati all'aeroporto di Taipei per tempesta Usagi</v>
+      </c>
+      <c r="B229" t="str">
+        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/11/15/voli-cancellati-allaeroporto-di-taipei-per-tempesta-usagi_6531155f-77ad-4508-a365-c71763c406de.html</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Qualità dell'aria peggiora a Delhi</v>
+      </c>
+      <c r="B230" t="str">
+        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/11/15/qualita-dellaria-peggiora-a-delhi_e11f6081-074e-4a4d-9025-44c1fbc4c914.html</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>World Baseball Confederation Premier12 Stati Uniti-Messico</v>
+      </c>
+      <c r="B231" t="str">
+        <v>https://www.ansa.it/sito/photogallery/sport/2024/11/15/world-baseball-confederation-premier12-stati-uniti-messico_1a7cba3a-b0c4-445d-8b3d-84344fcfcb65.html</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Nave cargo attracca in un porto di Tokyo</v>
+      </c>
+      <c r="B232" t="str">
+        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/11/15/nave-cargo-attracca-in-un-porto-di-tokyo_485db814-a455-4d9c-943f-c087878b0d28.html</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>Attivisti per il clima protestano durante la COP29 a Baku</v>
+      </c>
+      <c r="B233" t="str">
+        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/11/15/attivisti-per-il-clima-protestano-durante-la-cop29-a-baku_cf5e7027-fd6e-4663-bcc6-050ee250cb47.html</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>Usa2024: Musk ascolta il presidente Trump a Washington</v>
+      </c>
+      <c r="B234" t="str">
+        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/11/15/usa2024-musk-ascolta-il-presidente-trump-a-washington_dd7c0ee1-7530-4859-9df6-924aa06c7904.html</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>Usa2024: conferenza stampa del Partito Democratico</v>
+      </c>
+      <c r="B235" t="str">
+        <v>https://www.ansa.it/sito/photogallery/primopiano/2024/11/15/usa2024-conferenza-stampa-del-partito-democratico_0f32a002-6725-4154-a47b-3ab9bb19bd82.html</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>Italiani bocciati in educazione finanziaria, 12% è analfabeta</v>
+      </c>
+      <c r="B236" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/generali-italia/2024/10/30/italiani-bocciati-in-educazione-finanziaria-12-e-analfabeta_b3cfcf82-5852-487a-a658-0840a0855a22.html</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>Unipol, con Life Ada 38.000 agricoltori a scuola di adattamento</v>
+      </c>
+      <c r="B237" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/unipol-life-ada/2024/10/29/con-life-ada-38.000-agricoltori-a-corsi-di-adattamento-climatico_0248c540-d145-49e9-ac2f-9892dffaed7c.html</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>Welfare Italia, necessari 176 miliardi al 2030 e più prevenzione</v>
+      </c>
+      <c r="B238" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/unipol/2024/10/29/welfare-italia-necessari-176-miliardi-al-2030-e-piu-prevenzione_d8c2c7c3-9eed-4203-b5c9-fe8827eb928e.html</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>Unioncamere, nuove competenze per un'Ia a servizio delle Pmi</v>
+      </c>
+      <c r="B239" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/unioncamere-2/2024/10/17/unioncamere-nuove-competenze-per-unia-a-servizio-delle-pmi_71e61286-163b-451c-8dc0-1f3a3669e84f.html</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>Luce tra i frammenti,un corto narra il percorso del paziente</v>
+      </c>
+      <c r="B240" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/Gilead/2024/09/26/luce-tra-i-frammentiun-corto-narra-il-percorso-del-paziente-_b5865f33-f50b-488a-bf5b-6f71179916bf.html</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>Generali, formazione e lavoro nella salute per 300 rifugiati</v>
+      </c>
+      <c r="B241" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/generali/2024/10/04/generali-formazione-e-lavoro-nella-salute-per-300-rifugiati_3ab5ae8c-2a49-4538-893b-9d890406e737.html</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>Hydrogen Valley di Ip gruppo api del Nord-Ovest nel Novarese</v>
+      </c>
+      <c r="B242" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/italiana-petroli/2024/09/27/hydrogen-valley-di-ip-gruppo-api-del-nord-ovest-nel-novarese_78ffc353-9a9b-4069-bbbe-dbd48cb4e530.html</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Pnrr: Enti abruzzesi al centro del Contest Formez ' PaOk!</v>
+      </c>
+      <c r="B243" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/formez-pa/2024/09/12/pnrr-enti-abruzzesi-al-centro-del-contest-formez-paok_ef19e32f-dfb4-4efc-9634-da450ff6a9ae.html</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Giubileo: Deloitte, inerzia su sfide globali costa il 63% del Pil</v>
+      </c>
+      <c r="B244" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/deloitte2/2024/09/18/giubileo-deloitte-inerzia-su-sfide-globali-costa-il-63-del-pil_bb2c78ee-a258-46b4-adab-6a5058fbe061.html</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Al via Tempi di Recupero, progetto Safe per i rifiuti Raee</v>
+      </c>
+      <c r="B245" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/safe/2024/09/14/al-via-tempi-di-recupero-progetto-safe-per-i-rifiuti-raee_e5e6cc56-e93d-4ae9-8615-e698ffe71324.html</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Confartigianato, a Pmi energia costa 11,8 miliardi in più di Ue</v>
+      </c>
+      <c r="B246" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/confartigianato-italia/2024/09/27/confartigianato-a-pmi-energia-costa-118-miliardi-in-piu-di-ue_953b21be-8b3a-4d66-8080-6f2003b6cba6.html</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Rapporto Coop 2024, per gli italiani una vita al risparmio</v>
+      </c>
+      <c r="B247" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/ancc-coop/2024/09/10/rapporto-coop-2024-per-gli-italiani-una-vita-al-risparmio_7d67ab37-4a65-4898-967e-b0656ad332b3.html</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Inaugurato a Bologna il nuovo campus della Business school</v>
+      </c>
+      <c r="B248" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/ansa2030/bologna-business-school/2024/09/06/inaugurato-a-bologna-il-nuovo-campus-della-business-school_e8ad6568-c577-4593-968f-641f774bf9aa.html</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>A Giffoni felicità diffusa, chiude nel segno di Giorgia</v>
+      </c>
+      <c r="B249" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/postit/Giffoni/2023/07/25/arca-sogno-di-interpretare-un-personaggio-storico_4758e09f-3936-435a-877e-9ad793a3c5b3.html</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Wallife assicura dall'identità digitale alla genetica</v>
+      </c>
+      <c r="B250" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/wallife/2024/11/06/wallife-assicura-dallidentita-digitale-alla-genetica_956e5e95-36b1-4e66-89ad-0832ce0703d7.html</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Il monito dal Planetary Health Festival, 'salute umana interconnessa con tutela ambiente e mondo animale'</v>
+      </c>
+      <c r="B251" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/planetary-health-festival-/2024/10/04/vella-non-farsi-trovare-impreparati-in-caso-di-nuova-pandemia_58eedcc1-c530-4a59-88fe-e208582059d5.html</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Bandi Gilead, premiati 58 progetti di innovazione e solidarietà</v>
+      </c>
+      <c r="B252" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/canale_saluteebenessere/gilead-2/2024/10/17/bandi-gilead-premiati-58-progetti-di-innovazione-e-solidarieta_f754c354-a845-47f7-98f9-07475879091a.html</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Terna, a San Francisco due giorni per promuovere startup e transizione</v>
+      </c>
+      <c r="B253" t="str">
+        <v>https://www.ansa.it/ansacom/notizie/economia/terna/2024/10/30/terna-a-san-francisco-due-giorni-per-promuovere-startup-e-transizione_79c52989-b7fb-4e5c-b8dd-d848e87c5089.html</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Cassese, Comitato Lep avanti fino al 31 dicembre</v>
+      </c>
+      <c r="B254" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/cassese-comitato-lep-avanti-fino-al-31-dicembre_f81012aa-62e2-4574-a4c9-b7902dfc4b4f.html</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Arrivato a Beirut Larijani, consigliere di Khamenei</v>
+      </c>
+      <c r="B255" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/arrivato-a-beirut-larijani-consigliere-di-khamenei_9dc3de37-3841-4f89-83c7-9822873bbbb5.html</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Libano, almeno 9 gli attacchi aerei su Beirut oggi</v>
+      </c>
+      <c r="B256" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/libano-almeno-9-gli-attacchi-aerei-su-beirut-oggi_4ec08fe0-0f89-4882-9110-a39b1ab17a07.html</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Trump, 'Russia e Ucraina la devono smettere, lavorerò duramente'</v>
+      </c>
+      <c r="B257" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/trump-russia-e-ucraina-la-devono-smettere-lavorero-duramente_56f65b6f-e15e-4cb7-9614-9768e496b95f.html</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Crolla edificio a Beirut dopo attacco nella periferia sud</v>
+      </c>
+      <c r="B258" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/crolla-edificio-a-beirut-dopo-attacco-nella-periferia-sud_004716eb-602e-4216-acc7-13c71035d531.html</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Libano,8 membri della Protezione civili uccisi in raid Israele</v>
+      </c>
+      <c r="B259" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/libano8-membri-della-protezione-civili-uccisi-in-raid-israele_b065051b-24e1-45dd-a83d-14db0e9717f1.html</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>L'Istat conferma, l'inflazione ad ottobre sale a +0,9%</v>
+      </c>
+      <c r="B260" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/listat-conferma-linflazione-ad-ottobre-sale-a-09_da3d4879-075e-418d-bf81-916e27f36bf9.html</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>'Trump ha approvato proposta cessate il fuoco in Libano'</v>
+      </c>
+      <c r="B261" t="str">
+        <v>https://www.ansa.it/sito/notizie/topnews/2024/11/15/trump-ha-approvato-proposta-cessate-il-fuoco-in-libano_63a6514f-f216-413e-a454-35aa8c56afd3.html</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B228"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B261"/>
   </ignoredErrors>
 </worksheet>
 </file>